--- a/analysis/csv files/graphs_final/graph-2-hh.xlsx
+++ b/analysis/csv files/graphs_final/graph-2-hh.xlsx
@@ -6,20 +6,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="byHHRACE3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CI-byHHRACE3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="byHOUSEHOLDRACE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CI-byHOUSEHOLDRACE" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="byHHSEX" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="CI-byHHSEX" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="byHOUSEHOLDCITSHP" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="CI-byHOUSEHOLDCITSHP" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="byHHGRAD4" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="CI-byHHGRAD4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="byHHRACE3+HHSEX" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="CI-byHHRACE3+HHSEX" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="byHHRACE3+HOUSEHOLDCITSHP" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="CI-byHHRACE3+HOUSEHOLDCITSHP" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="byHHRACE3+HHGRAD4" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="CI-byHHRACE3+HHGRAD4" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="byHOUSEHOLDRACE+HHSEX" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="CI-byHOUSEHOLDRACE+HHSEX" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="byHOUSEHOLDRACE+HOUSEHOLDCITSHP" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="CI-byHOUSEHOLDRACE+HOUSEHOLDCI" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="byHOUSEHOLDRACE+HHGRAD4" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="CI-byHOUSEHOLDRACE+HHGRAD4" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00700109626706264</v>
+        <v>0.00767679913570053</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0101612341445786</v>
+        <v>0.00986449590588446</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0168701642004191</v>
+        <v>0.0205681999259936</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.032235176653928</v>
+        <v>0.0424904586856894</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0636527463125841</v>
+        <v>0.0666207696056374</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.383880114926295</v>
+        <v>0.3387501764322</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
@@ -554,13 +554,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.430802822568129</v>
+        <v>0.421873565156035</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
@@ -568,13 +568,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.470336857092185</v>
+        <v>0.426307869515244</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
@@ -582,13 +582,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>0.471174148120245</v>
+        <v>0.470336857092185</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -602,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.586188113857726</v>
+        <v>0.581621468178831</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.684344205772386</v>
+        <v>0.688415507299122</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0119005113541893</v>
+        <v>0.0118729177510304</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -644,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0158433528225717</v>
+        <v>0.0175983175695391</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
@@ -672,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0274986410959012</v>
+        <v>0.0369647973792173</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -686,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0343441757891373</v>
+        <v>0.0427822140966773</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0611315871882571</v>
+        <v>0.0644985069644032</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>0.293594048728846</v>
+        <v>0.289847079043963</v>
       </c>
       <c r="D20" t="n">
         <v>6</v>
@@ -728,7 +728,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>0.39096743705264</v>
+        <v>0.393103415115929</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
@@ -742,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>0.44441284393103</v>
+        <v>0.442572853914715</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
@@ -750,13 +750,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>0.477611511890199</v>
+        <v>0.479041135615545</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -764,13 +764,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>0.479041135615545</v>
+        <v>0.514776020821294</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>0.556386067323876</v>
+        <v>0.581794567502893</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -841,19 +841,19 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0046613848990637</v>
+        <v>0.00477834357607361</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00387007385314662</v>
+        <v>0.00395960011896232</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00545269594498078</v>
+        <v>0.0055970870331849</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000791311045917081</v>
+        <v>0.000818743457111294</v>
       </c>
     </row>
     <row r="3">
@@ -867,19 +867,19 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004881087048909</v>
+        <v>0.00531617638606971</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00255090316316976</v>
+        <v>0.00277827151065812</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00721127093464824</v>
+        <v>0.0078540812614813</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00233018388573924</v>
+        <v>0.00253790487541159</v>
       </c>
     </row>
     <row r="4">
@@ -919,71 +919,71 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0101942750963307</v>
+        <v>0.0115902946899283</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00658723159470693</v>
+        <v>0.0073625465695932</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0138013185979545</v>
+        <v>0.0158180428102634</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00360704350162381</v>
+        <v>0.00422774812033509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0133692069590377</v>
+        <v>0.015665569646299</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00179057429844528</v>
+        <v>0.0140092349223242</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0249478396196301</v>
+        <v>0.0173219043702738</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0115786326605924</v>
+        <v>0.00165633472397481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0163940478171186</v>
+        <v>0.0189801554055305</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0147264955997797</v>
+        <v>0.00155714286556124</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0180616000344574</v>
+        <v>0.0364031679454997</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00166755221733885</v>
+        <v>0.0174230125399692</v>
       </c>
     </row>
     <row r="8">
@@ -997,24 +997,24 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.020670081919816</v>
+        <v>0.0221565984154781</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00731347558753135</v>
+        <v>0.00439719239170945</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0340266882521006</v>
+        <v>0.0399160044392467</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0133566063322846</v>
+        <v>0.0177594060237686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1023,24 +1023,24 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0234311029290231</v>
+        <v>0.0282666382855485</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0171656016627003</v>
+        <v>0.0229886661564178</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0640278075207464</v>
+        <v>0.0335446104146793</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0405967045917233</v>
+        <v>0.00527797212913076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1049,24 +1049,24 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0266368468184852</v>
+        <v>0.0329112929883725</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0217374305973809</v>
+        <v>-0.0237383158632897</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0315362630395896</v>
+        <v>0.0895609018400346</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00489941622110436</v>
+        <v>0.0566496088516621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1075,24 +1075,24 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0399935702443287</v>
+        <v>0.0416598580413565</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.000696337583958505</v>
+        <v>0.035331088732248</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0806834780726159</v>
+        <v>0.047988627350465</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0406899078282872</v>
+        <v>0.00632876930910847</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1101,19 +1101,19 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0416598580413565</v>
+        <v>0.0509168376822608</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035331088732248</v>
+        <v>-0.00527603794265843</v>
       </c>
       <c r="G12" t="n">
-        <v>0.047988627350465</v>
+        <v>0.10710971330718</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00632876930910847</v>
+        <v>0.0561928756249192</v>
       </c>
     </row>
     <row r="13">
@@ -1127,19 +1127,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0893476704919795</v>
+        <v>0.0915488204785543</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0812205631961391</v>
+        <v>0.0831581038219508</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0974747777878199</v>
+        <v>0.0999395371351577</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00812710729584042</v>
+        <v>0.00839071665660344</v>
       </c>
     </row>
     <row r="14">
@@ -1153,45 +1153,45 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>0.333028593395736</v>
+        <v>0.313755959319558</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.224775358613438</v>
+        <v>0.188806786101344</v>
       </c>
       <c r="G14" t="n">
-        <v>0.441281828178034</v>
+        <v>0.438705132537771</v>
       </c>
       <c r="H14" t="n">
-        <v>0.108253234782298</v>
+        <v>0.124949173218214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>0.402535258630962</v>
+        <v>0.367163774644924</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>0.385188242700209</v>
+        <v>0.239000337042753</v>
       </c>
       <c r="G15" t="n">
-        <v>0.419882274561715</v>
+        <v>0.495327212247095</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0173470159307529</v>
+        <v>0.128163437602171</v>
       </c>
     </row>
     <row r="16">
@@ -1205,24 +1205,24 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.413417927320299</v>
+        <v>0.389080346692262</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>0.348883253930395</v>
+        <v>0.313861053869877</v>
       </c>
       <c r="G16" t="n">
-        <v>0.477952600710203</v>
+        <v>0.464299639514647</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0645346733899044</v>
+        <v>0.0752192928223852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1231,50 +1231,50 @@
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>0.436282550267762</v>
+        <v>0.401235513445551</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>0.417892199533698</v>
+        <v>0.383566482058372</v>
       </c>
       <c r="G17" t="n">
-        <v>0.454672901001826</v>
+        <v>0.418904544832729</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0183903507340639</v>
+        <v>0.0176690313871783</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>0.441585429739475</v>
+        <v>0.436282550267762</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>0.328971608667303</v>
+        <v>0.417892199533698</v>
       </c>
       <c r="G18" t="n">
-        <v>0.554199250811647</v>
+        <v>0.454672901001826</v>
       </c>
       <c r="H18" t="n">
-        <v>0.112613821072172</v>
+        <v>0.0183903507340639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1283,24 +1283,24 @@
         <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>0.471524846043887</v>
+        <v>0.454659475766319</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.45007742655765</v>
+        <v>0.376516673228476</v>
       </c>
       <c r="G19" t="n">
-        <v>0.492972265530125</v>
+        <v>0.532802278304162</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0214474194862376</v>
+        <v>0.0781428025378432</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1309,24 +1309,24 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>0.503718847287466</v>
+        <v>0.464884027839993</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>0.485583092503806</v>
+        <v>0.442347786392205</v>
       </c>
       <c r="G20" t="n">
-        <v>0.521854602071126</v>
+        <v>0.487420269287782</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0181357547836601</v>
+        <v>0.0225362414477885</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1335,19 +1335,19 @@
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>0.524386368588136</v>
+        <v>0.503718847287466</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.460997605459664</v>
+        <v>0.485583092503806</v>
       </c>
       <c r="G21" t="n">
-        <v>0.587775131716608</v>
+        <v>0.521854602071126</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0633887631284723</v>
+        <v>0.0181357547836601</v>
       </c>
     </row>
     <row r="22">
@@ -1361,19 +1361,19 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.581362573807508</v>
+        <v>0.578150263819339</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.549296557778226</v>
+        <v>0.543484559715231</v>
       </c>
       <c r="G22" t="n">
-        <v>0.613428589836791</v>
+        <v>0.612815967923447</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0320660160292823</v>
+        <v>0.0346657041041081</v>
       </c>
     </row>
     <row r="23">
@@ -1387,19 +1387,19 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>0.589391877234603</v>
+        <v>0.583715300627621</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>0.563458867526008</v>
+        <v>0.556775952389142</v>
       </c>
       <c r="G23" t="n">
-        <v>0.615324886943199</v>
+        <v>0.610654648866099</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0259330097085956</v>
+        <v>0.0269393482384787</v>
       </c>
     </row>
     <row r="24">
@@ -1413,19 +1413,19 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>0.653981636811225</v>
+        <v>0.660254300244308</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0.646199641450052</v>
+        <v>0.652369353332622</v>
       </c>
       <c r="G24" t="n">
-        <v>0.661763632172398</v>
+        <v>0.668139247155994</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00778199536117286</v>
+        <v>0.0078849469116864</v>
       </c>
     </row>
     <row r="25">
@@ -1439,19 +1439,19 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.711136207068469</v>
+        <v>0.713106141357825</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.704162501371983</v>
+        <v>0.706030904584005</v>
       </c>
       <c r="G25" t="n">
-        <v>0.718109912764955</v>
+        <v>0.720181378131645</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0069737056964857</v>
+        <v>0.00707523677381972</v>
       </c>
     </row>
     <row r="26">
@@ -1465,24 +1465,24 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00665566168902908</v>
+        <v>0.00668176591108138</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00560259252274085</v>
+        <v>0.00561345748638768</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0077087308553173</v>
+        <v>0.00775007433577508</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00105306916628822</v>
+        <v>0.0010683084246937</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -1491,24 +1491,24 @@
         <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0101829719430611</v>
+        <v>0.0130000330628856</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.000439169134163083</v>
+        <v>0.00752725931413081</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0199267747519591</v>
+        <v>0.0184728068116404</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00974380280889799</v>
+        <v>0.0054727737487548</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -1517,19 +1517,19 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0119360774380837</v>
+        <v>0.0143029875343744</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00690865213878518</v>
+        <v>0.000524957287056172</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0169635027373821</v>
+        <v>0.0280810177816925</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00502742529929847</v>
+        <v>0.0137780302473182</v>
       </c>
     </row>
     <row r="29">
@@ -1569,19 +1569,19 @@
         <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0178443416746452</v>
+        <v>0.0177937499771373</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0160469489423408</v>
+        <v>0.0159511136186323</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0196417344069496</v>
+        <v>0.0196363863356423</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00179739273230437</v>
+        <v>0.00184263635850498</v>
       </c>
     </row>
     <row r="31">
@@ -1595,19 +1595,19 @@
         <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0217285296090829</v>
+        <v>0.02522146107126</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.014574345545375</v>
+        <v>0.0167133107864899</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0288827136727908</v>
+        <v>0.0337296113560302</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0071541840637079</v>
+        <v>0.00850815028477012</v>
       </c>
     </row>
     <row r="32">
@@ -1621,19 +1621,19 @@
         <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0225256011212016</v>
+        <v>0.0296949046255971</v>
       </c>
       <c r="E32" t="n">
         <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00636873555539682</v>
+        <v>0.00569184953810574</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0386824666870064</v>
+        <v>0.0536979597130884</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0161568655658048</v>
+        <v>0.0240030550874913</v>
       </c>
     </row>
     <row r="33">
@@ -1673,24 +1673,24 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0395190940980026</v>
+        <v>0.0430878002582942</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0319835183960151</v>
+        <v>0.0347929383326801</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0470546697999902</v>
+        <v>0.0513826621839082</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00753557570198751</v>
+        <v>0.00829486192561402</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -1699,24 +1699,24 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0427576883013861</v>
+        <v>0.0558724406787483</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00209800008739077</v>
+        <v>0.0239885068842185</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0834173765153813</v>
+        <v>0.0877563744732782</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0406596882139953</v>
+        <v>0.0318839337945298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -1725,19 +1725,19 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0471719849288408</v>
+        <v>0.0568994142899954</v>
       </c>
       <c r="E36" t="n">
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0215484043158402</v>
+        <v>0.000604827563890506</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0727955655418413</v>
+        <v>0.1131940010161</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0256235806130005</v>
+        <v>0.0562945867261049</v>
       </c>
     </row>
     <row r="37">
@@ -1751,19 +1751,19 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0761340963497683</v>
+        <v>0.0784142747741524</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0681690654433008</v>
+        <v>0.0701403320823786</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0840991272562358</v>
+        <v>0.0866882174659262</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00796503090646752</v>
+        <v>0.00827394269177381</v>
       </c>
     </row>
     <row r="38">
@@ -1777,19 +1777,19 @@
         <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277546746343438</v>
+        <v>0.27543374915502</v>
       </c>
       <c r="E38" t="n">
         <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>0.270629643298104</v>
+        <v>0.268417476591128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.284463849388772</v>
+        <v>0.282450021718912</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00691710304533399</v>
+        <v>0.00701627256389176</v>
       </c>
     </row>
     <row r="39">
@@ -1803,19 +1803,19 @@
         <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>0.311779973697012</v>
+        <v>0.306286380132256</v>
       </c>
       <c r="E39" t="n">
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>0.304138134322184</v>
+        <v>0.298549104265388</v>
       </c>
       <c r="G39" t="n">
-        <v>0.319421813071839</v>
+        <v>0.314023655999123</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00764183937482782</v>
+        <v>0.00773727586686768</v>
       </c>
     </row>
     <row r="40">
@@ -1829,19 +1829,19 @@
         <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>0.386714621487078</v>
+        <v>0.385037980419472</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>0.354821998388143</v>
+        <v>0.350607693004771</v>
       </c>
       <c r="G40" t="n">
-        <v>0.418607244586013</v>
+        <v>0.419468267834174</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0318926230989346</v>
+        <v>0.0344302874147012</v>
       </c>
     </row>
     <row r="41">
@@ -1855,19 +1855,19 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>0.393790958278404</v>
+        <v>0.397968489923424</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>0.367962276850843</v>
+        <v>0.371134073781593</v>
       </c>
       <c r="G41" t="n">
-        <v>0.419619639705966</v>
+        <v>0.424802906065254</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0258286814275615</v>
+        <v>0.0268344161418305</v>
       </c>
     </row>
     <row r="42">
@@ -1881,24 +1881,24 @@
         <v>13</v>
       </c>
       <c r="D42" t="n">
-        <v>0.43198297452729</v>
+        <v>0.428801391301743</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.414538328539604</v>
+        <v>0.411054555168401</v>
       </c>
       <c r="G42" t="n">
-        <v>0.449427620514976</v>
+        <v>0.446548227435084</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0174446459876856</v>
+        <v>0.0177468361333415</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -1907,24 +1907,24 @@
         <v>13</v>
       </c>
       <c r="D43" t="n">
-        <v>0.439718823331625</v>
+        <v>0.463761533616164</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.376841549523124</v>
+        <v>0.441225355705213</v>
       </c>
       <c r="G43" t="n">
-        <v>0.502596097140126</v>
+        <v>0.486297711527115</v>
       </c>
       <c r="H43" t="n">
-        <v>0.062877273808501</v>
+        <v>0.0225361779109514</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
@@ -1933,19 +1933,19 @@
         <v>13</v>
       </c>
       <c r="D44" t="n">
-        <v>0.462319213039625</v>
+        <v>0.472271977632456</v>
       </c>
       <c r="E44" t="n">
         <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>0.44088148359918</v>
+        <v>0.454138959156935</v>
       </c>
       <c r="G44" t="n">
-        <v>0.483756942480069</v>
+        <v>0.490404996107977</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0214377294404444</v>
+        <v>0.0181330184755208</v>
       </c>
     </row>
     <row r="45">
@@ -1953,51 +1953,51 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>0.472271977632456</v>
+        <v>0.485946625119034</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>0.454138959156935</v>
+        <v>0.4674082395235</v>
       </c>
       <c r="G45" t="n">
-        <v>0.490404996107977</v>
+        <v>0.504485010714568</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0181330184755208</v>
+        <v>0.0185383855955341</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="n">
-        <v>0.485946625119034</v>
+        <v>0.496665464202553</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4674082395235</v>
+        <v>0.418819311919747</v>
       </c>
       <c r="G46" t="n">
-        <v>0.504485010714568</v>
+        <v>0.574511616485359</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0185383855955341</v>
+        <v>0.0778461522828061</v>
       </c>
     </row>
     <row r="47">
@@ -2011,19 +2011,19 @@
         <v>13</v>
       </c>
       <c r="D47" t="n">
-        <v>0.518740005831044</v>
+        <v>0.532890614213511</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>0.453694916282517</v>
+        <v>0.456819106379742</v>
       </c>
       <c r="G47" t="n">
-        <v>0.583785095379571</v>
+        <v>0.608962122047281</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0650450895485271</v>
+        <v>0.0760715078337698</v>
       </c>
     </row>
     <row r="48">
@@ -2031,25 +2031,25 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>0.524800495388441</v>
+        <v>0.578427788708186</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>0.411645609221989</v>
+        <v>0.446303978299682</v>
       </c>
       <c r="G48" t="n">
-        <v>0.637955381554893</v>
+        <v>0.71055159911669</v>
       </c>
       <c r="H48" t="n">
-        <v>0.113154886166452</v>
+        <v>0.132123810408504</v>
       </c>
     </row>
     <row r="49">
@@ -2057,25 +2057,25 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="n">
-        <v>0.584220148058549</v>
+        <v>0.585621944832329</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.47190069643544</v>
+        <v>0.454461558879449</v>
       </c>
       <c r="G49" t="n">
-        <v>0.696539599681659</v>
+        <v>0.71678233078521</v>
       </c>
       <c r="H49" t="n">
-        <v>0.112319451623109</v>
+        <v>0.13116038595288</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00235045683347745</v>
+        <v>0.00274176152709705</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
@@ -2137,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00291663587276523</v>
+        <v>0.00296350824642506</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -2154,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00901579309694881</v>
+        <v>0.00979640648661667</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -2171,7 +2171,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0101118988940576</v>
+        <v>0.0100593262902204</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -2188,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.010229830331842</v>
+        <v>0.0100994351034508</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -2222,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0123163909614153</v>
+        <v>0.0124884321863399</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
@@ -2256,7 +2256,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0152635403674958</v>
+        <v>0.015839151894407</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -2273,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0185403089488595</v>
+        <v>0.0231569535810603</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -2290,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0197864882860616</v>
+        <v>0.0261596214026781</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0275361654123909</v>
+        <v>0.0291244995545979</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -2341,7 +2341,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0658663681915723</v>
+        <v>0.0689184585319776</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -2358,7 +2358,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.143479602064711</v>
+        <v>0.156181548953707</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -2411,16 +2411,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0496585297195358</v>
+        <v>0.0527174811063497</v>
       </c>
       <c r="E20" t="n">
         <v>18</v>
@@ -2428,16 +2428,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>0.108733737061523</v>
+        <v>0.0561535984930727</v>
       </c>
       <c r="E21" t="n">
         <v>17</v>
@@ -2454,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155251890881605</v>
+        <v>0.147835613105491</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -2471,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19685500172987</v>
+        <v>0.215855142846609</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2505,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.242079545158256</v>
+        <v>0.243330796852226</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2530,16 +2530,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.281697785232151</v>
+        <v>0.273578986908724</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
@@ -2547,16 +2547,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.282959643010547</v>
+        <v>0.280091763881553</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2581,16 +2581,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.42758425250633</v>
+        <v>0.400669583759792</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2598,16 +2598,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.429733702830849</v>
+        <v>0.429582720112114</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2624,7 +2624,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>0.441664603796108</v>
+        <v>0.43738253867858</v>
       </c>
       <c r="E32" t="n">
         <v>6</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>0.502737031413859</v>
+        <v>0.454157809445721</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2675,7 +2675,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>0.540146434913321</v>
+        <v>0.554167101950228</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -2692,7 +2692,7 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.681754688329781</v>
+        <v>0.683219957863852</v>
       </c>
       <c r="E36" t="n">
         <v>2</v>
@@ -2709,7 +2709,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.703593036145979</v>
+        <v>0.708406433395979</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -2726,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00654638471430799</v>
+        <v>0.00774112744034211</v>
       </c>
       <c r="E38" t="n">
         <v>18</v>
@@ -2743,7 +2743,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00896292636623798</v>
+        <v>0.0104550767881144</v>
       </c>
       <c r="E39" t="n">
         <v>17</v>
@@ -2760,7 +2760,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0106837390156471</v>
+        <v>0.0108233055341885</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
@@ -2777,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0118634022886977</v>
+        <v>0.0118363051524901</v>
       </c>
       <c r="E41" t="n">
         <v>15</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -2794,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0122554393367943</v>
+        <v>0.0131764823820944</v>
       </c>
       <c r="E42" t="n">
         <v>14</v>
@@ -2805,13 +2805,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0131764823820944</v>
+        <v>0.0136577933805007</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -2819,16 +2819,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0136577933805007</v>
+        <v>0.0138583849292627</v>
       </c>
       <c r="E44" t="n">
         <v>12</v>
@@ -2845,7 +2845,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0148118821961018</v>
+        <v>0.015049919478501</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -2862,7 +2862,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0159382376590514</v>
+        <v>0.0155263988895586</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -2870,16 +2870,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0170837381304325</v>
+        <v>0.0198370218164035</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -2887,16 +2887,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0175760859623348</v>
+        <v>0.0212497832389912</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -2913,7 +2913,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0204775436482435</v>
+        <v>0.0301694739771905</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -2921,16 +2921,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0291540516857133</v>
+        <v>0.0304030586209006</v>
       </c>
       <c r="E50" t="n">
         <v>6</v>
@@ -2938,16 +2938,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0301694739771905</v>
+        <v>0.0326085300365754</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -2964,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0304030586209006</v>
+        <v>0.0476154554999933</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -2981,7 +2981,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0361974594359712</v>
+        <v>0.0664540863146276</v>
       </c>
       <c r="E53" t="n">
         <v>3</v>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0630406375362828</v>
+        <v>0.202912369459852</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -3014,9 +3014,7 @@
       <c r="C55" t="s">
         <v>12</v>
       </c>
-      <c r="D55" t="n">
-        <v>0.186409894249011</v>
-      </c>
+      <c r="D55"/>
       <c r="E55" t="n">
         <v>1</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="D56" t="n">
-        <v>0.274431662671266</v>
+        <v>0.269960854964914</v>
       </c>
       <c r="E56" t="n">
         <v>18</v>
@@ -3049,7 +3047,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>0.291653432610936</v>
+        <v>0.286883694029524</v>
       </c>
       <c r="E57" t="n">
         <v>17</v>
@@ -3083,7 +3081,7 @@
         <v>13</v>
       </c>
       <c r="D59" t="n">
-        <v>0.429428390476037</v>
+        <v>0.427244916474815</v>
       </c>
       <c r="E59" t="n">
         <v>15</v>
@@ -3091,16 +3089,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="D60" t="n">
-        <v>0.44252520020131</v>
+        <v>0.432636059734561</v>
       </c>
       <c r="E60" t="n">
         <v>14</v>
@@ -3108,16 +3106,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="n">
-        <v>0.448540181886963</v>
+        <v>0.475069781473225</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -3125,16 +3123,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" t="n">
-        <v>0.543933424168781</v>
+        <v>0.549494539250247</v>
       </c>
       <c r="E62" t="n">
         <v>12</v>
@@ -3142,16 +3140,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>0.551502178146181</v>
+        <v>0.565429667397188</v>
       </c>
       <c r="E63" t="n">
         <v>11</v>
@@ -3168,7 +3166,7 @@
         <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>0.561376766624755</v>
+        <v>0.588188600480092</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -3202,7 +3200,7 @@
         <v>13</v>
       </c>
       <c r="D66" t="n">
-        <v>0.660350139891349</v>
+        <v>0.664687983500102</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -3219,7 +3217,7 @@
         <v>13</v>
       </c>
       <c r="D67" t="n">
-        <v>0.690047586147383</v>
+        <v>0.691893405042548</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -3270,7 +3268,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="n">
-        <v>0.740191936772877</v>
+        <v>0.738655775422848</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -3287,7 +3285,7 @@
         <v>13</v>
       </c>
       <c r="D71" t="n">
-        <v>0.786061260139698</v>
+        <v>0.784144857153391</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
@@ -3304,7 +3302,7 @@
         <v>13</v>
       </c>
       <c r="D72" t="n">
-        <v>0.809007025102656</v>
+        <v>0.815075451761111</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -3321,7 +3319,7 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>0.93808603094367</v>
+        <v>0.929988016577665</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -3378,19 +3376,19 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00235045683347745</v>
+        <v>0.00274176152709705</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.000182003702995653</v>
+        <v>-0.00021321688602219</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00488291736995055</v>
+        <v>0.00569673994021628</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0025324605364731</v>
+        <v>0.00295497841311924</v>
       </c>
     </row>
     <row r="3">
@@ -3404,24 +3402,24 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00291663587276523</v>
+        <v>0.00296350824642506</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000530189234203127</v>
+        <v>0.000538576267459825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00530308251132734</v>
+        <v>0.00538844022539029</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0023864466385621</v>
+        <v>0.00242493197896523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -3430,24 +3428,24 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00901579309694881</v>
+        <v>0.00979640648661667</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00619164179964647</v>
+        <v>0.0088760556961283</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0118399443942511</v>
+        <v>0.010716757277105</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00282415129730233</v>
+        <v>0.000920350790488375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -3456,19 +3454,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0101118988940576</v>
+        <v>0.0100593262902204</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00919202026442002</v>
+        <v>0.0068378851194318</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0110317775236952</v>
+        <v>0.0132807674610089</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000919878629637596</v>
+        <v>0.00322144117078857</v>
       </c>
     </row>
     <row r="6">
@@ -3482,19 +3480,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.010229830331842</v>
+        <v>0.0100994351034508</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0061355051722643</v>
+        <v>0.00598426986984913</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0143241554914196</v>
+        <v>0.0142146003370525</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00409432515957766</v>
+        <v>0.00411516523360166</v>
       </c>
     </row>
     <row r="7">
@@ -3534,19 +3532,19 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0123163909614153</v>
+        <v>0.0124884321863399</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00633381753149089</v>
+        <v>0.00642260510548129</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0182989643913396</v>
+        <v>0.0185542592671986</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00598257342992437</v>
+        <v>0.00606582708085864</v>
       </c>
     </row>
     <row r="9">
@@ -3586,19 +3584,19 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0152635403674958</v>
+        <v>0.015839151894407</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00243171745789681</v>
+        <v>0.00251947526858456</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0280953632770948</v>
+        <v>0.0291588285202294</v>
       </c>
       <c r="H10" t="n">
-        <v>0.012831822909599</v>
+        <v>0.0133196766258224</v>
       </c>
     </row>
     <row r="11">
@@ -3612,19 +3610,19 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0185403089488595</v>
+        <v>0.0231569535810603</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00887562858121879</v>
+        <v>0.00915302623358579</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0282049893165002</v>
+        <v>0.0371608809285347</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00966468036764071</v>
+        <v>0.0140039273474745</v>
       </c>
     </row>
     <row r="12">
@@ -3638,19 +3636,19 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0197864882860616</v>
+        <v>0.0261596214026781</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00254949719793944</v>
+        <v>-0.00683661566318617</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0421224737700626</v>
+        <v>0.0591558584685424</v>
       </c>
       <c r="H12" t="n">
-        <v>0.022335985484001</v>
+        <v>0.0329962370658643</v>
       </c>
     </row>
     <row r="13">
@@ -3664,19 +3662,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0275361654123909</v>
+        <v>0.0291244995545979</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00454633067317341</v>
+        <v>0.00355310567785842</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0505260001516085</v>
+        <v>0.0546958934313374</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0229898347392175</v>
+        <v>0.0255713938767395</v>
       </c>
     </row>
     <row r="14">
@@ -3716,19 +3714,19 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0658663681915723</v>
+        <v>0.0689184585319776</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0604131906839346</v>
+        <v>0.0631613540776419</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0713195456992099</v>
+        <v>0.0746755629863134</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00545317750763763</v>
+        <v>0.00575710445433575</v>
       </c>
     </row>
     <row r="16">
@@ -3742,19 +3740,19 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.143479602064711</v>
+        <v>0.156181548953707</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0422305328322735</v>
+        <v>-0.044197405317638</v>
       </c>
       <c r="G16" t="n">
-        <v>0.329189736961696</v>
+        <v>0.356560503225051</v>
       </c>
       <c r="H16" t="n">
-        <v>0.185710134896985</v>
+        <v>0.200378954271345</v>
       </c>
     </row>
     <row r="17">
@@ -3813,54 +3811,54 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0496585297195358</v>
+        <v>0.0527174811063497</v>
       </c>
       <c r="E20" t="n">
         <v>18</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0197020696525677</v>
+        <v>-0.0112546535464491</v>
       </c>
       <c r="G20" t="n">
-        <v>0.119019129091639</v>
+        <v>0.116689615759149</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0693605993721035</v>
+        <v>0.0639721346527988</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>0.108733737061523</v>
+        <v>0.0561535984930727</v>
       </c>
       <c r="E21" t="n">
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0180698866157054</v>
+        <v>-0.0221273720330588</v>
       </c>
       <c r="G21" t="n">
-        <v>0.235537360738752</v>
+        <v>0.134434569019204</v>
       </c>
       <c r="H21" t="n">
-        <v>0.126803623677229</v>
+        <v>0.0782809705261315</v>
       </c>
     </row>
     <row r="22">
@@ -3874,19 +3872,19 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155251890881605</v>
+        <v>0.147835613105491</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0844362377913372</v>
+        <v>0.0778218881763598</v>
       </c>
       <c r="G22" t="n">
-        <v>0.226067543971872</v>
+        <v>0.217849338034622</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0708156530902676</v>
+        <v>0.0700137249291313</v>
       </c>
     </row>
     <row r="23">
@@ -3900,19 +3898,19 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19685500172987</v>
+        <v>0.215855142846609</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0772004743399181</v>
+        <v>0.076950105690561</v>
       </c>
       <c r="G23" t="n">
-        <v>0.316509529119821</v>
+        <v>0.354760180002656</v>
       </c>
       <c r="H23" t="n">
-        <v>0.119654527389952</v>
+        <v>0.138905037156048</v>
       </c>
     </row>
     <row r="24">
@@ -3952,19 +3950,19 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.242079545158256</v>
+        <v>0.243330796852226</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>0.200227870085771</v>
+        <v>0.201031304437649</v>
       </c>
       <c r="G25" t="n">
-        <v>0.28393122023074</v>
+        <v>0.285630289266802</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0418516750724846</v>
+        <v>0.0422994924145767</v>
       </c>
     </row>
     <row r="26">
@@ -3995,54 +3993,54 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.281697785232151</v>
+        <v>0.273578986908724</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.249211653920491</v>
+        <v>0.196430642291753</v>
       </c>
       <c r="G27" t="n">
-        <v>0.31418391654381</v>
+        <v>0.350727331525696</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0324861313116594</v>
+        <v>0.0771483446169716</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.282959643010547</v>
+        <v>0.280091763881553</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>0.208971178979332</v>
+        <v>0.247552630540186</v>
       </c>
       <c r="G28" t="n">
-        <v>0.356948107041762</v>
+        <v>0.31263089722292</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0739884640312147</v>
+        <v>0.032539133341367</v>
       </c>
     </row>
     <row r="29">
@@ -4073,54 +4071,54 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.42758425250633</v>
+        <v>0.400669583759792</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>0.400978630772002</v>
+        <v>0.293738533637702</v>
       </c>
       <c r="G30" t="n">
-        <v>0.454189874240658</v>
+        <v>0.507600633881882</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0266056217343277</v>
+        <v>0.10693105012209</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.429733702830849</v>
+        <v>0.429582720112114</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.341074153330036</v>
+        <v>0.402785810549722</v>
       </c>
       <c r="G31" t="n">
-        <v>0.518393252331662</v>
+        <v>0.456379629674506</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0886595495008127</v>
+        <v>0.0267969095623917</v>
       </c>
     </row>
     <row r="32">
@@ -4134,19 +4132,19 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>0.441664603796108</v>
+        <v>0.43738253867858</v>
       </c>
       <c r="E32" t="n">
         <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>0.427786429740287</v>
+        <v>0.423081362420269</v>
       </c>
       <c r="G32" t="n">
-        <v>0.455542777851929</v>
+        <v>0.45168371493689</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0138781740558208</v>
+        <v>0.0143011762583103</v>
       </c>
     </row>
     <row r="33">
@@ -4160,19 +4158,19 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>0.502737031413859</v>
+        <v>0.454157809445721</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.454516285721878</v>
+        <v>0.395470409891997</v>
       </c>
       <c r="G33" t="n">
-        <v>0.550957777105841</v>
+        <v>0.512845208999446</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0482207456919812</v>
+        <v>0.0586873995537245</v>
       </c>
     </row>
     <row r="34">
@@ -4212,19 +4210,19 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>0.540146434913321</v>
+        <v>0.554167101950228</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>0.485557360041784</v>
+        <v>0.4961395153903</v>
       </c>
       <c r="G35" t="n">
-        <v>0.594735509784859</v>
+        <v>0.612194688510156</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0545890748715376</v>
+        <v>0.0580275865599276</v>
       </c>
     </row>
     <row r="36">
@@ -4238,19 +4236,19 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.681754688329781</v>
+        <v>0.683219957863852</v>
       </c>
       <c r="E36" t="n">
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>0.659027323650381</v>
+        <v>0.659155211007238</v>
       </c>
       <c r="G36" t="n">
-        <v>0.70448205300918</v>
+        <v>0.707284704720466</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0227273646793994</v>
+        <v>0.0240647468566142</v>
       </c>
     </row>
     <row r="37">
@@ -4264,19 +4262,19 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.703593036145979</v>
+        <v>0.708406433395979</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.698287786638262</v>
+        <v>0.703032113078978</v>
       </c>
       <c r="G37" t="n">
-        <v>0.708898285653695</v>
+        <v>0.71378075371298</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00530524950771649</v>
+        <v>0.00537432031700114</v>
       </c>
     </row>
     <row r="38">
@@ -4290,19 +4288,19 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00654638471430799</v>
+        <v>0.00774112744034211</v>
       </c>
       <c r="E38" t="n">
         <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000526451144619354</v>
+        <v>-0.00030690471616236</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0125663182839966</v>
+        <v>0.0157891595968466</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00601993356968864</v>
+        <v>0.00804803215650447</v>
       </c>
     </row>
     <row r="39">
@@ -4316,19 +4314,19 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00896292636623798</v>
+        <v>0.0104550767881144</v>
       </c>
       <c r="E39" t="n">
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>0.000801957553790882</v>
+        <v>0.000940415647175426</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0171238951786851</v>
+        <v>0.0199697379290534</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0081609688124471</v>
+        <v>0.009514661140939</v>
       </c>
     </row>
     <row r="40">
@@ -4342,19 +4340,19 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0106837390156471</v>
+        <v>0.0108233055341885</v>
       </c>
       <c r="E40" t="n">
         <v>16</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00601079543313686</v>
+        <v>0.0060895279985654</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0153566825981573</v>
+        <v>0.0155570830698117</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0046729435825102</v>
+        <v>0.00473377753562313</v>
       </c>
     </row>
     <row r="41">
@@ -4368,24 +4366,24 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0118634022886977</v>
+        <v>0.0118363051524901</v>
       </c>
       <c r="E41" t="n">
         <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0108169089236754</v>
+        <v>0.0107675797253595</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01290989565372</v>
+        <v>0.0129050305796207</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00104649336502231</v>
+        <v>0.00106872542713058</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -4394,19 +4392,19 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0122554393367943</v>
+        <v>0.0131764823820944</v>
       </c>
       <c r="E42" t="n">
         <v>14</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0121582777458147</v>
+        <v>0.00581614591060408</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0366691564194033</v>
+        <v>0.0205368188535847</v>
       </c>
       <c r="H42" t="n">
-        <v>0.024413717082609</v>
+        <v>0.00736033647149033</v>
       </c>
     </row>
     <row r="43">
@@ -4414,51 +4412,51 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0131764823820944</v>
+        <v>0.0136577933805007</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00581614591060408</v>
+        <v>0.00764648118518832</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0205368188535847</v>
+        <v>0.0196691055758131</v>
       </c>
       <c r="H43" t="n">
-        <v>0.00736033647149033</v>
+        <v>0.00601131219531239</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0136577933805007</v>
+        <v>0.0138583849292627</v>
       </c>
       <c r="E44" t="n">
         <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00764648118518832</v>
+        <v>-0.0137662503913368</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0196691055758131</v>
+        <v>0.0414830202498622</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00601131219531239</v>
+        <v>0.0276246353205995</v>
       </c>
     </row>
     <row r="45">
@@ -4472,19 +4470,19 @@
         <v>12</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0148118821961018</v>
+        <v>0.015049919478501</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00435231677909782</v>
+        <v>0.0044233676882847</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0252714476131059</v>
+        <v>0.0256764712687173</v>
       </c>
       <c r="H45" t="n">
-        <v>0.010459565417004</v>
+        <v>0.0106265517902163</v>
       </c>
     </row>
     <row r="46">
@@ -4498,76 +4496,76 @@
         <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0159382376590514</v>
+        <v>0.0155263988895586</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00868316532254692</v>
+        <v>0.00822905987681761</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0231933099955558</v>
+        <v>0.0228237379022997</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00725507233650444</v>
+        <v>0.00729733901274104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0170837381304325</v>
+        <v>0.0198370218164035</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.00912437683075171</v>
+        <v>0.0138547084418544</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0432918530916167</v>
+        <v>0.0258193351909527</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0262081149611842</v>
+        <v>0.00598231337454919</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0175760859623348</v>
+        <v>0.0212497832389912</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0123692714471743</v>
+        <v>0.00239820614701213</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0227829004774952</v>
+        <v>0.0401013603309703</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00520681451516047</v>
+        <v>0.0188515770919791</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -4576,76 +4574,76 @@
         <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0204775436482435</v>
+        <v>0.0301694739771905</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00231111842816541</v>
+        <v>-0.0148854184367424</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0386439688683216</v>
+        <v>0.0752243663911235</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0181664252200781</v>
+        <v>0.045054892413933</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0291540516857133</v>
+        <v>0.0304030586209006</v>
       </c>
       <c r="E50" t="n">
         <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00149761089520375</v>
+        <v>0.0254840769295078</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0568104924762228</v>
+        <v>0.0353220403122934</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0276564407905095</v>
+        <v>0.00491898169139281</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0301694739771905</v>
+        <v>0.0326085300365754</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.0148854184367424</v>
+        <v>0.00173377286357287</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0752243663911235</v>
+        <v>0.063483287209578</v>
       </c>
       <c r="H51" t="n">
-        <v>0.045054892413933</v>
+        <v>0.0308747571730025</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -4654,24 +4652,24 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0304030586209006</v>
+        <v>0.0476154554999933</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0254840769295078</v>
+        <v>0.025167900250056</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0353220403122934</v>
+        <v>0.0700630107499306</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00491898169139281</v>
+        <v>0.0224475552499373</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -4680,50 +4678,50 @@
         <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0361974594359712</v>
+        <v>0.0664540863146276</v>
       </c>
       <c r="E53" t="n">
         <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0199155355202157</v>
+        <v>0.0602292158218553</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0524793833517267</v>
+        <v>0.0726789568073999</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0162819239157555</v>
+        <v>0.00622487049277228</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0630406375362828</v>
+        <v>0.202912369459852</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0571857250773227</v>
+        <v>0.00843372386422428</v>
       </c>
       <c r="G54" t="n">
-        <v>0.068895549995243</v>
+        <v>0.397391015055479</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00585491245896015</v>
+        <v>0.194478645595627</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -4731,21 +4729,13 @@
       <c r="C55" t="s">
         <v>12</v>
       </c>
-      <c r="D55" t="n">
-        <v>0.186409894249011</v>
-      </c>
+      <c r="D55"/>
       <c r="E55" t="n">
         <v>1</v>
       </c>
-      <c r="F55" t="n">
-        <v>0.00630495745756735</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.366514831040454</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.180104936791443</v>
-      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -4758,19 +4748,19 @@
         <v>13</v>
       </c>
       <c r="D56" t="n">
-        <v>0.274431662671266</v>
+        <v>0.269960854964914</v>
       </c>
       <c r="E56" t="n">
         <v>18</v>
       </c>
       <c r="F56" t="n">
-        <v>0.269207618953084</v>
+        <v>0.264670943396642</v>
       </c>
       <c r="G56" t="n">
-        <v>0.279655706389448</v>
+        <v>0.275250766533186</v>
       </c>
       <c r="H56" t="n">
-        <v>0.00522404371818208</v>
+        <v>0.00528991156827174</v>
       </c>
     </row>
     <row r="57">
@@ -4784,19 +4774,19 @@
         <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>0.291653432610936</v>
+        <v>0.286883694029524</v>
       </c>
       <c r="E57" t="n">
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>0.269230977375774</v>
+        <v>0.263210042125506</v>
       </c>
       <c r="G57" t="n">
-        <v>0.314075887846097</v>
+        <v>0.310557345933542</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0224224552351619</v>
+        <v>0.0236736519040183</v>
       </c>
     </row>
     <row r="58">
@@ -4836,123 +4826,123 @@
         <v>13</v>
       </c>
       <c r="D59" t="n">
-        <v>0.429428390476037</v>
+        <v>0.427244916474815</v>
       </c>
       <c r="E59" t="n">
         <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>0.415583767563374</v>
+        <v>0.412987341551644</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4432730133887</v>
+        <v>0.441502491397986</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0138446229126629</v>
+        <v>0.0142575749231709</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="D60" t="n">
-        <v>0.44252520020131</v>
+        <v>0.432636059734561</v>
       </c>
       <c r="E60" t="n">
         <v>14</v>
       </c>
       <c r="F60" t="n">
-        <v>0.394707961574789</v>
+        <v>0.374718731497069</v>
       </c>
       <c r="G60" t="n">
-        <v>0.490342438827831</v>
+        <v>0.490553387972052</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0478172386265208</v>
+        <v>0.0579173282374912</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="n">
-        <v>0.448540181886963</v>
+        <v>0.475069781473225</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>0.394031293936218</v>
+        <v>0.416665645592513</v>
       </c>
       <c r="G61" t="n">
-        <v>0.503049069837709</v>
+        <v>0.533473917353938</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0545088879507458</v>
+        <v>0.0584041358807129</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" t="n">
-        <v>0.543933424168781</v>
+        <v>0.549494539250247</v>
       </c>
       <c r="E62" t="n">
         <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>0.454890978479641</v>
+        <v>0.52261187791563</v>
       </c>
       <c r="G62" t="n">
-        <v>0.632975869857922</v>
+        <v>0.576377200584864</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0890424456891407</v>
+        <v>0.0268826613346169</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>0.551502178146181</v>
+        <v>0.565429667397188</v>
       </c>
       <c r="E63" t="n">
         <v>11</v>
       </c>
       <c r="F63" t="n">
-        <v>0.524806529757498</v>
+        <v>0.457532153865585</v>
       </c>
       <c r="G63" t="n">
-        <v>0.578197826534864</v>
+        <v>0.673327180928791</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0266956483886825</v>
+        <v>0.107897513531603</v>
       </c>
     </row>
     <row r="64">
@@ -4966,19 +4956,19 @@
         <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>0.561376766624755</v>
+        <v>0.588188600480092</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>0.327155851757481</v>
+        <v>0.344897329438701</v>
       </c>
       <c r="G64" t="n">
-        <v>0.795597681492028</v>
+        <v>0.831479871521483</v>
       </c>
       <c r="H64" t="n">
-        <v>0.234220914867274</v>
+        <v>0.243291271041391</v>
       </c>
     </row>
     <row r="65">
@@ -5018,19 +5008,19 @@
         <v>13</v>
       </c>
       <c r="D66" t="n">
-        <v>0.660350139891349</v>
+        <v>0.664687983500102</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
       </c>
       <c r="F66" t="n">
-        <v>0.583256590119726</v>
+        <v>0.583643580527576</v>
       </c>
       <c r="G66" t="n">
-        <v>0.737443689662971</v>
+        <v>0.745732386472629</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0770935497716225</v>
+        <v>0.0810444029725268</v>
       </c>
     </row>
     <row r="67">
@@ -5044,19 +5034,19 @@
         <v>13</v>
       </c>
       <c r="D67" t="n">
-        <v>0.690047586147383</v>
+        <v>0.691893405042548</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.656970325320493</v>
+        <v>0.658741773996988</v>
       </c>
       <c r="G67" t="n">
-        <v>0.723124846974272</v>
+        <v>0.725045036088109</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0330772608268898</v>
+        <v>0.0331516310455601</v>
       </c>
     </row>
     <row r="68">
@@ -5122,19 +5112,19 @@
         <v>13</v>
       </c>
       <c r="D70" t="n">
-        <v>0.740191936772877</v>
+        <v>0.738655775422848</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>0.697555721512069</v>
+        <v>0.695564708955122</v>
       </c>
       <c r="G70" t="n">
-        <v>0.782828152033685</v>
+        <v>0.781746841890575</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0426362152608083</v>
+        <v>0.0430910664677266</v>
       </c>
     </row>
     <row r="71">
@@ -5148,19 +5138,19 @@
         <v>13</v>
       </c>
       <c r="D71" t="n">
-        <v>0.786061260139698</v>
+        <v>0.784144857153391</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>0.664101410239866</v>
+        <v>0.645239819997344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.908021110039529</v>
+        <v>0.923049894309439</v>
       </c>
       <c r="H71" t="n">
-        <v>0.121959849899831</v>
+        <v>0.138905037156048</v>
       </c>
     </row>
     <row r="72">
@@ -5174,19 +5164,19 @@
         <v>13</v>
       </c>
       <c r="D72" t="n">
-        <v>0.809007025102656</v>
+        <v>0.815075451761111</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>0.736047688588079</v>
+        <v>0.742597015686404</v>
       </c>
       <c r="G72" t="n">
-        <v>0.881966361617233</v>
+        <v>0.887553887835817</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0729593365145768</v>
+        <v>0.0724784360747066</v>
       </c>
     </row>
     <row r="73">
@@ -5200,19 +5190,19 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>0.93808603094367</v>
+        <v>0.929988016577665</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.863908304005056</v>
+        <v>0.846255467205154</v>
       </c>
       <c r="G73" t="n">
-        <v>1.01226375788228</v>
+        <v>1.01372056595017</v>
       </c>
       <c r="H73" t="n">
-        <v>0.074177726938614</v>
+        <v>0.0837325493725103</v>
       </c>
     </row>
   </sheetData>
@@ -5248,16 +5238,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00186460221336715</v>
+        <v>0.00238516503367917</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -5268,13 +5258,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00209632649196582</v>
+        <v>0.00245261334575603</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
@@ -5282,7 +5272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -5291,7 +5281,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00215633075684055</v>
+        <v>0.00268578690350804</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
@@ -5299,7 +5289,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -5308,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00281270648883496</v>
+        <v>0.00343978524815161</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -5342,7 +5332,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00839230841513972</v>
+        <v>0.00840324376890801</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
@@ -5359,7 +5349,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00938523003163315</v>
+        <v>0.0092223190981416</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
@@ -5367,7 +5357,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -5376,7 +5366,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0117404208256853</v>
+        <v>0.0115773720412979</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
@@ -5384,7 +5374,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5393,7 +5383,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0121422753765232</v>
+        <v>0.0123891774944178</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -5410,7 +5400,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0144082077877641</v>
+        <v>0.0163544773214437</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -5427,7 +5417,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0188423662466857</v>
+        <v>0.0192510157177885</v>
       </c>
       <c r="E12" t="n">
         <v>14</v>
@@ -5452,16 +5442,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0239597095605537</v>
+        <v>0.0250603116273441</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
@@ -5469,16 +5459,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0250603116273441</v>
+        <v>0.0274666036890597</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -5486,7 +5476,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -5495,7 +5485,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0279065650107665</v>
+        <v>0.0295993452004545</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -5512,7 +5502,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0299848495930179</v>
+        <v>0.0335748928508628</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -5529,7 +5519,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0349684878972803</v>
+        <v>0.0367537297177288</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -5563,7 +5553,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0637365646974242</v>
+        <v>0.0675809430477905</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
@@ -5580,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0645530005514781</v>
+        <v>0.0766905907442261</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -5597,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0746049414236005</v>
+        <v>0.0771969640401163</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -5614,7 +5604,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.108328822222352</v>
+        <v>0.111176416510804</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -5631,7 +5621,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21236330205513</v>
+        <v>0.221464061228451</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -5663,7 +5653,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>0.120296283993521</v>
+        <v>0.131683426743037</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
@@ -5680,7 +5670,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.307430579756119</v>
+        <v>0.327568063965429</v>
       </c>
       <c r="E27" t="n">
         <v>23</v>
@@ -5697,7 +5687,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.344445761938705</v>
+        <v>0.347533798533571</v>
       </c>
       <c r="E28" t="n">
         <v>22</v>
@@ -5714,7 +5704,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.37482268532784</v>
+        <v>0.37214715648437</v>
       </c>
       <c r="E29" t="n">
         <v>21</v>
@@ -5722,16 +5712,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.39355705403145</v>
+        <v>0.385798480415636</v>
       </c>
       <c r="E30" t="n">
         <v>20</v>
@@ -5739,7 +5729,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -5748,7 +5738,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.412421741716134</v>
+        <v>0.38589185270127</v>
       </c>
       <c r="E31" t="n">
         <v>19</v>
@@ -5756,7 +5746,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -5765,7 +5755,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>0.442450641662325</v>
+        <v>0.409375873850564</v>
       </c>
       <c r="E32" t="n">
         <v>18</v>
@@ -5773,16 +5763,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>0.442822622579551</v>
+        <v>0.412421741716134</v>
       </c>
       <c r="E33" t="n">
         <v>17</v>
@@ -5790,16 +5780,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>0.446433688033941</v>
+        <v>0.442450641662325</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -5807,7 +5797,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -5816,7 +5806,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>0.471775199542038</v>
+        <v>0.445574338902467</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -5824,16 +5814,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.48010390493363</v>
+        <v>0.470278865842831</v>
       </c>
       <c r="E36" t="n">
         <v>14</v>
@@ -5841,16 +5831,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.502474251512867</v>
+        <v>0.470588398033551</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -5858,16 +5848,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>0.528905917625713</v>
+        <v>0.482852472116981</v>
       </c>
       <c r="E38" t="n">
         <v>12</v>
@@ -5875,16 +5865,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>0.537663155606848</v>
+        <v>0.496571659808605</v>
       </c>
       <c r="E39" t="n">
         <v>11</v>
@@ -5892,16 +5882,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>0.573781927841273</v>
+        <v>0.502474251512867</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -5909,16 +5899,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>0.580228049312136</v>
+        <v>0.531247683138162</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -5926,16 +5916,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>0.58848656411823</v>
+        <v>0.551329307116782</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -5943,16 +5933,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>0.590585962814011</v>
+        <v>0.567709045348459</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -5960,7 +5950,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -5969,7 +5959,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>0.607144665579241</v>
+        <v>0.600626009686629</v>
       </c>
       <c r="E44" t="n">
         <v>6</v>
@@ -5977,7 +5967,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -5986,7 +5976,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>0.610390633551718</v>
+        <v>0.607144665579241</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -6003,7 +5993,7 @@
         <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>0.654179854626635</v>
+        <v>0.645135666811316</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -6020,7 +6010,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>0.655485377669445</v>
+        <v>0.661391144406546</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -6037,7 +6027,7 @@
         <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>0.698466946425879</v>
+        <v>0.703870601038617</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -6054,7 +6044,7 @@
         <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>0.759245281710395</v>
+        <v>0.762456551282809</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -6071,7 +6061,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>0.000754305388245305</v>
+        <v>0.000858235987406405</v>
       </c>
       <c r="E50" t="n">
         <v>24</v>
@@ -6079,7 +6069,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -6088,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0025462721951411</v>
+        <v>0.00339343295853663</v>
       </c>
       <c r="E51" t="n">
         <v>23</v>
@@ -6096,7 +6086,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -6105,7 +6095,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>0.003429888952902</v>
+        <v>0.0053320115957452</v>
       </c>
       <c r="E52" t="n">
         <v>22</v>
@@ -6122,7 +6112,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00459808934295257</v>
+        <v>0.00546264596522598</v>
       </c>
       <c r="E53" t="n">
         <v>21</v>
@@ -6139,7 +6129,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00558006426902104</v>
+        <v>0.00634677219761486</v>
       </c>
       <c r="E54" t="n">
         <v>20</v>
@@ -6156,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00887164318529109</v>
+        <v>0.00895689968770087</v>
       </c>
       <c r="E55" t="n">
         <v>19</v>
@@ -6173,7 +6163,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0104675441024568</v>
+        <v>0.0103985455239069</v>
       </c>
       <c r="E56" t="n">
         <v>18</v>
@@ -6207,7 +6197,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0131243107341458</v>
+        <v>0.0130032216055856</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
@@ -6232,16 +6222,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0204893443425969</v>
+        <v>0.0217075864272638</v>
       </c>
       <c r="E60" t="n">
         <v>14</v>
@@ -6249,7 +6239,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -6258,7 +6248,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0217075864272638</v>
+        <v>0.0246001439255487</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -6266,16 +6256,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0220880303129731</v>
+        <v>0.0335136814419757</v>
       </c>
       <c r="E62" t="n">
         <v>12</v>
@@ -6292,7 +6282,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0371269038583388</v>
+        <v>0.0369455472189744</v>
       </c>
       <c r="E63" t="n">
         <v>11</v>
@@ -6300,16 +6290,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0375841504054845</v>
+        <v>0.0423714327943436</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -6317,7 +6307,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
         <v>24</v>
@@ -6326,7 +6316,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>0.042348311424903</v>
+        <v>0.0467694358031344</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -6334,16 +6324,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0423714327943436</v>
+        <v>0.0474123334656011</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -6360,7 +6350,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0471013107822504</v>
+        <v>0.0566463811512686</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -6377,7 +6367,7 @@
         <v>12</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0576393884887252</v>
+        <v>0.0600279393534394</v>
       </c>
       <c r="E68" t="n">
         <v>6</v>
@@ -6394,7 +6384,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0654924807579395</v>
+        <v>0.068690116344035</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -6411,7 +6401,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0743316446299875</v>
+        <v>0.0813678141616544</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -6428,7 +6418,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="n">
-        <v>0.092772143080702</v>
+        <v>0.0952515590794586</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
@@ -6445,7 +6435,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>0.145953614462045</v>
+        <v>0.1500643595093</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -6477,7 +6467,7 @@
         <v>13</v>
       </c>
       <c r="D74" t="n">
-        <v>0.234512122847868</v>
+        <v>0.231464228855146</v>
       </c>
       <c r="E74" t="n">
         <v>24</v>
@@ -6494,7 +6484,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="n">
-        <v>0.281680279440031</v>
+        <v>0.276508534339335</v>
       </c>
       <c r="E75" t="n">
         <v>23</v>
@@ -6511,7 +6501,7 @@
         <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>0.319248036219886</v>
+        <v>0.31402826194657</v>
       </c>
       <c r="E76" t="n">
         <v>22</v>
@@ -6528,7 +6518,7 @@
         <v>13</v>
       </c>
       <c r="D77" t="n">
-        <v>0.342969513493154</v>
+        <v>0.351620932167598</v>
       </c>
       <c r="E77" t="n">
         <v>21</v>
@@ -6536,16 +6526,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="n">
-        <v>0.358939843250374</v>
+        <v>0.375112932850259</v>
       </c>
       <c r="E78" t="n">
         <v>20</v>
@@ -6553,7 +6543,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -6562,7 +6552,7 @@
         <v>13</v>
       </c>
       <c r="D79" t="n">
-        <v>0.375112932850259</v>
+        <v>0.39057460477</v>
       </c>
       <c r="E79" t="n">
         <v>19</v>
@@ -6570,16 +6560,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="n">
-        <v>0.38187297142242</v>
+        <v>0.391225425446325</v>
       </c>
       <c r="E80" t="n">
         <v>18</v>
@@ -6596,7 +6586,7 @@
         <v>13</v>
       </c>
       <c r="D81" t="n">
-        <v>0.392155464088388</v>
+        <v>0.397406313169261</v>
       </c>
       <c r="E81" t="n">
         <v>17</v>
@@ -6613,7 +6603,7 @@
         <v>13</v>
       </c>
       <c r="D82" t="n">
-        <v>0.39850406272675</v>
+        <v>0.404083039246052</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
@@ -6621,7 +6611,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
@@ -6630,7 +6620,7 @@
         <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>0.401271801376898</v>
+        <v>0.404340165953804</v>
       </c>
       <c r="E83" t="n">
         <v>15</v>
@@ -6638,16 +6628,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="n">
-        <v>0.406060613505181</v>
+        <v>0.411681371463252</v>
       </c>
       <c r="E84" t="n">
         <v>14</v>
@@ -6655,16 +6645,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="n">
-        <v>0.408967163686629</v>
+        <v>0.426816778696304</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6675,13 +6665,13 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>0.417907348474497</v>
+        <v>0.436339765898557</v>
       </c>
       <c r="E86" t="n">
         <v>12</v>
@@ -6689,16 +6679,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="n">
-        <v>0.428508393254493</v>
+        <v>0.458577690474605</v>
       </c>
       <c r="E87" t="n">
         <v>11</v>
@@ -6709,13 +6699,13 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="n">
-        <v>0.43219035877991</v>
+        <v>0.481965763131479</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -6726,13 +6716,13 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" t="n">
-        <v>0.458577690474605</v>
+        <v>0.507127888973508</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -6740,16 +6730,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" t="n">
-        <v>0.459073710563532</v>
+        <v>0.510781460283067</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6757,16 +6747,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="n">
-        <v>0.48507989249062</v>
+        <v>0.513707742634867</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -6774,16 +6764,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" t="n">
-        <v>0.500420858207782</v>
+        <v>0.524389122561424</v>
       </c>
       <c r="E92" t="n">
         <v>6</v>
@@ -6791,16 +6781,16 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="D93" t="n">
-        <v>0.507127888973508</v>
+        <v>0.526857315362392</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -6808,16 +6798,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" t="n">
-        <v>0.510781460283067</v>
+        <v>0.527862420947007</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -6825,16 +6815,16 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="n">
-        <v>0.535381925625745</v>
+        <v>0.532048282874912</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -6851,7 +6841,7 @@
         <v>13</v>
       </c>
       <c r="D96" t="n">
-        <v>0.593008769321362</v>
+        <v>0.565484697866857</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
@@ -6868,7 +6858,7 @@
         <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>0.646592961423257</v>
+        <v>0.617259256462528</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
@@ -6916,28 +6906,28 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00186460221336715</v>
+        <v>0.00238516503367917</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00181067815223369</v>
+        <v>-0.000333161667236748</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00553988257896798</v>
+        <v>0.00510349173459508</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00367528036560083</v>
+        <v>0.00271832670091591</v>
       </c>
     </row>
     <row r="3">
@@ -6945,30 +6935,30 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00209632649196582</v>
+        <v>0.00245261334575603</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.000291483897107584</v>
+        <v>0.000831222927687779</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00448413688103922</v>
+        <v>0.00407400376382429</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0023878103890734</v>
+        <v>0.00162139041806825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -6977,24 +6967,24 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00215633075684055</v>
+        <v>0.00268578690350804</v>
       </c>
       <c r="E4" t="n">
         <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000730897022640884</v>
+        <v>0.00194581378760867</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00358176449104021</v>
+        <v>0.00342576001940741</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00142543373419966</v>
+        <v>0.000739973115899375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -7003,19 +6993,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00281270648883496</v>
+        <v>0.00343978524815161</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00206067196781204</v>
+        <v>-0.00337186290185852</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00356474100985789</v>
+        <v>0.0102514333981617</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000752034521022926</v>
+        <v>0.00681164815001014</v>
       </c>
     </row>
     <row r="6">
@@ -7055,19 +7045,19 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00839230841513972</v>
+        <v>0.00840324376890801</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.000170378853474592</v>
+        <v>-0.00155686810886846</v>
       </c>
       <c r="G7" t="n">
-        <v>0.016954995683754</v>
+        <v>0.0183633556466845</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00856268726861431</v>
+        <v>0.00996011187777647</v>
       </c>
     </row>
     <row r="8">
@@ -7081,24 +7071,24 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00938523003163315</v>
+        <v>0.0092223190981416</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00706413527495827</v>
+        <v>0.00686725688351244</v>
       </c>
       <c r="G8" t="n">
-        <v>0.011706324788308</v>
+        <v>0.0115773813127708</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00232109475667488</v>
+        <v>0.00235506221462916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -7107,24 +7097,24 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0117404208256853</v>
+        <v>0.0115773720412979</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00565208170200221</v>
+        <v>0.0100375577889297</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0178287599493685</v>
+        <v>0.013117186293666</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00608833912368312</v>
+        <v>0.00153981425236815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -7133,19 +7123,19 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0121422753765232</v>
+        <v>0.0123891774944178</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>0.010580409488181</v>
+        <v>0.00561022001598632</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0137041412648653</v>
+        <v>0.0191681349728492</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00156186588834213</v>
+        <v>0.00677895747843144</v>
       </c>
     </row>
     <row r="11">
@@ -7159,19 +7149,19 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0144082077877641</v>
+        <v>0.0163544773214437</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00457414876510052</v>
+        <v>0.00279887629926209</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0242422668104276</v>
+        <v>0.0299100783436253</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00983405902266354</v>
+        <v>0.0135556010221816</v>
       </c>
     </row>
     <row r="12">
@@ -7185,19 +7175,19 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0188423662466857</v>
+        <v>0.0192510157177885</v>
       </c>
       <c r="E12" t="n">
         <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0132736980410949</v>
+        <v>0.0134611725212053</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0244110344522764</v>
+        <v>0.0250408589143717</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00556866820559074</v>
+        <v>0.00578984319658319</v>
       </c>
     </row>
     <row r="13">
@@ -7228,59 +7218,59 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0239597095605537</v>
+        <v>0.0250603116273441</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0032585799631926</v>
+        <v>0.0193525777784889</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0446608391579149</v>
+        <v>0.0307680454761993</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0207011295973611</v>
+        <v>0.00570773384885519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0250603116273441</v>
+        <v>0.0274666036890597</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0193525777784889</v>
+        <v>0.0230517745931942</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0307680454761993</v>
+        <v>0.0318814327849252</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00570773384885519</v>
+        <v>0.00441482909586549</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -7289,19 +7279,19 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0279065650107665</v>
+        <v>0.0295993452004545</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0235376120286889</v>
+        <v>0.00404441768396401</v>
       </c>
       <c r="G16" t="n">
-        <v>0.032275517992844</v>
+        <v>0.055154272716945</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00436895298207758</v>
+        <v>0.0255549275164905</v>
       </c>
     </row>
     <row r="17">
@@ -7315,19 +7305,19 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0299848495930179</v>
+        <v>0.0335748928508628</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0113475792451298</v>
+        <v>-0.0308576519720851</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0713172784311657</v>
+        <v>0.0980074376738106</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0413324288381478</v>
+        <v>0.0644325448229479</v>
       </c>
     </row>
     <row r="18">
@@ -7341,19 +7331,19 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0349684878972803</v>
+        <v>0.0367537297177288</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0213162682753332</v>
+        <v>0.0223708332275014</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0486207075192274</v>
+        <v>0.0511366262079561</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0136522196219471</v>
+        <v>0.0143828964902274</v>
       </c>
     </row>
     <row r="19">
@@ -7393,19 +7383,19 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0637365646974242</v>
+        <v>0.0675809430477905</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0499046002004465</v>
+        <v>0.0528368206660751</v>
       </c>
       <c r="G20" t="n">
-        <v>0.077568529194402</v>
+        <v>0.0823250654295059</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0138319644969778</v>
+        <v>0.0147441223817154</v>
       </c>
     </row>
     <row r="21">
@@ -7419,19 +7409,19 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0645530005514781</v>
+        <v>0.0766905907442261</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0565856091657107</v>
+        <v>-0.0660494984515117</v>
       </c>
       <c r="G21" t="n">
-        <v>0.185691610268667</v>
+        <v>0.219430679939964</v>
       </c>
       <c r="H21" t="n">
-        <v>0.121138609717189</v>
+        <v>0.142740089195738</v>
       </c>
     </row>
     <row r="22">
@@ -7445,19 +7435,19 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0746049414236005</v>
+        <v>0.0771969640401163</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0663141417522568</v>
+        <v>0.0685323899712331</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0828957410949442</v>
+        <v>0.0858615381089995</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00829079967134368</v>
+        <v>0.00866457406888323</v>
       </c>
     </row>
     <row r="23">
@@ -7471,19 +7461,19 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.108328822222352</v>
+        <v>0.111176416510804</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0901262279778955</v>
+        <v>0.0923700891453392</v>
       </c>
       <c r="G23" t="n">
-        <v>0.126531416466809</v>
+        <v>0.129982743876269</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0182025942444568</v>
+        <v>0.0188063273654649</v>
       </c>
     </row>
     <row r="24">
@@ -7497,19 +7487,19 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21236330205513</v>
+        <v>0.221464061228451</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0056771559267596</v>
+        <v>-0.0145009637764726</v>
       </c>
       <c r="G24" t="n">
-        <v>0.43040376003702</v>
+        <v>0.457429086233375</v>
       </c>
       <c r="H24" t="n">
-        <v>0.21804045798189</v>
+        <v>0.235965025004924</v>
       </c>
     </row>
     <row r="25">
@@ -7541,19 +7531,19 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>0.120296283993521</v>
+        <v>0.131683426743037</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00216968915314093</v>
+        <v>0.00192948050403161</v>
       </c>
       <c r="G26" t="n">
-        <v>0.238422878833901</v>
+        <v>0.261437372982042</v>
       </c>
       <c r="H26" t="n">
-        <v>0.11812659484038</v>
+        <v>0.129753946239005</v>
       </c>
     </row>
     <row r="27">
@@ -7567,19 +7557,19 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.307430579756119</v>
+        <v>0.327568063965429</v>
       </c>
       <c r="E27" t="n">
         <v>23</v>
       </c>
       <c r="F27" t="n">
-        <v>0.201140616552874</v>
+        <v>0.202479486638844</v>
       </c>
       <c r="G27" t="n">
-        <v>0.413720542959363</v>
+        <v>0.452656641292015</v>
       </c>
       <c r="H27" t="n">
-        <v>0.106289963203245</v>
+        <v>0.125088577326586</v>
       </c>
     </row>
     <row r="28">
@@ -7593,19 +7583,19 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.344445761938705</v>
+        <v>0.347533798533571</v>
       </c>
       <c r="E28" t="n">
         <v>22</v>
       </c>
       <c r="F28" t="n">
-        <v>0.309230316810904</v>
+        <v>0.311597843378327</v>
       </c>
       <c r="G28" t="n">
-        <v>0.379661207066505</v>
+        <v>0.383469753688815</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0352154451278006</v>
+        <v>0.035935955155244</v>
       </c>
     </row>
     <row r="29">
@@ -7619,50 +7609,50 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.37482268532784</v>
+        <v>0.37214715648437</v>
       </c>
       <c r="E29" t="n">
         <v>21</v>
       </c>
       <c r="F29" t="n">
-        <v>0.355277187471155</v>
+        <v>0.352087203909156</v>
       </c>
       <c r="G29" t="n">
-        <v>0.394368183184525</v>
+        <v>0.392207109059584</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0195454978566849</v>
+        <v>0.0200599525752139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.39355705403145</v>
+        <v>0.385798480415636</v>
       </c>
       <c r="E30" t="n">
         <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>0.301125782714086</v>
+        <v>0.164087695522206</v>
       </c>
       <c r="G30" t="n">
-        <v>0.485988325348815</v>
+        <v>0.607509265309066</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0924312713173643</v>
+        <v>0.22171078489343</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -7671,24 +7661,24 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.412421741716134</v>
+        <v>0.38589185270127</v>
       </c>
       <c r="E31" t="n">
         <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>0.389729223741469</v>
+        <v>0.283512833310427</v>
       </c>
       <c r="G31" t="n">
-        <v>0.435114259690799</v>
+        <v>0.488270872092113</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0226925179746648</v>
+        <v>0.102379019390843</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -7697,76 +7687,76 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>0.442450641662325</v>
+        <v>0.409375873850564</v>
       </c>
       <c r="E32" t="n">
         <v>18</v>
       </c>
       <c r="F32" t="n">
-        <v>0.422068084608661</v>
+        <v>0.332553783332704</v>
       </c>
       <c r="G32" t="n">
-        <v>0.462833198715989</v>
+        <v>0.486197964368423</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0203825570536637</v>
+        <v>0.0768220905178591</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>0.442822622579551</v>
+        <v>0.412421741716134</v>
       </c>
       <c r="E33" t="n">
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>0.377764660266246</v>
+        <v>0.389729223741469</v>
       </c>
       <c r="G33" t="n">
-        <v>0.507880584892855</v>
+        <v>0.435114259690799</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0650579623133041</v>
+        <v>0.0226925179746648</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>0.446433688033941</v>
+        <v>0.442450641662325</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>0.411127959493758</v>
+        <v>0.422068084608661</v>
       </c>
       <c r="G34" t="n">
-        <v>0.481739416574124</v>
+        <v>0.462833198715989</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0353057285401833</v>
+        <v>0.0203825570536637</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -7775,232 +7765,232 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>0.471775199542038</v>
+        <v>0.445574338902467</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
       </c>
       <c r="F35" t="n">
-        <v>0.262833267427731</v>
+        <v>0.40921873490031</v>
       </c>
       <c r="G35" t="n">
-        <v>0.680717131656344</v>
+        <v>0.481929942904623</v>
       </c>
       <c r="H35" t="n">
-        <v>0.208941932114306</v>
+        <v>0.0363556040021566</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.48010390493363</v>
+        <v>0.470278865842831</v>
       </c>
       <c r="E36" t="n">
         <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.405704846820243</v>
+        <v>0.235915611375609</v>
       </c>
       <c r="G36" t="n">
-        <v>0.554502963047016</v>
+        <v>0.704642120310053</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0743990581133864</v>
+        <v>0.234363254467222</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.502474251512867</v>
+        <v>0.470588398033551</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
       </c>
       <c r="F37" t="n">
-        <v>0.463377968699224</v>
+        <v>0.394134793397089</v>
       </c>
       <c r="G37" t="n">
-        <v>0.541570534326509</v>
+        <v>0.547042002670013</v>
       </c>
       <c r="H37" t="n">
-        <v>0.039096282813643</v>
+        <v>0.0764536046364619</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>0.528905917625713</v>
+        <v>0.482852472116981</v>
       </c>
       <c r="E38" t="n">
         <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>0.512056400279116</v>
+        <v>0.3183953143387</v>
       </c>
       <c r="G38" t="n">
-        <v>0.545755434972311</v>
+        <v>0.647309629895262</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0168495173465976</v>
+        <v>0.164457157778281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>0.537663155606848</v>
+        <v>0.496571659808605</v>
       </c>
       <c r="E39" t="n">
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>0.495748439561601</v>
+        <v>0.339109565891028</v>
       </c>
       <c r="G39" t="n">
-        <v>0.579577871652096</v>
+        <v>0.654033753726182</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0419147160452473</v>
+        <v>0.157462093917577</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>0.573781927841273</v>
+        <v>0.502474251512867</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>0.547079118853645</v>
+        <v>0.463377968699224</v>
       </c>
       <c r="G40" t="n">
-        <v>0.600484736828902</v>
+        <v>0.541570534326509</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0267028089876284</v>
+        <v>0.039096282813643</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>0.580228049312136</v>
+        <v>0.531247683138162</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>0.464589188141496</v>
+        <v>0.514236699537409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.695866910482776</v>
+        <v>0.548258666738914</v>
       </c>
       <c r="H41" t="n">
-        <v>0.11563886117064</v>
+        <v>0.0170109836007528</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>0.58848656411823</v>
+        <v>0.551329307116782</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.422786239361844</v>
+        <v>0.507314336358965</v>
       </c>
       <c r="G42" t="n">
-        <v>0.754186888874615</v>
+        <v>0.595344277874598</v>
       </c>
       <c r="H42" t="n">
-        <v>0.165700324756385</v>
+        <v>0.0440149707578166</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>0.590585962814011</v>
+        <v>0.567709045348459</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.469079382507108</v>
+        <v>0.539668977028001</v>
       </c>
       <c r="G43" t="n">
-        <v>0.712092543120915</v>
+        <v>0.595749113668917</v>
       </c>
       <c r="H43" t="n">
-        <v>0.121506580306904</v>
+        <v>0.028040068320458</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -8009,24 +7999,24 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>0.607144665579241</v>
+        <v>0.600626009686629</v>
       </c>
       <c r="E44" t="n">
         <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>0.576854777962209</v>
+        <v>0.573220833079043</v>
       </c>
       <c r="G44" t="n">
-        <v>0.637434553196273</v>
+        <v>0.628031186294215</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0302898876170322</v>
+        <v>0.027405176607586</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -8035,19 +8025,19 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>0.610390633551718</v>
+        <v>0.607144665579241</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>0.584564995613629</v>
+        <v>0.576854777962209</v>
       </c>
       <c r="G45" t="n">
-        <v>0.636216271489808</v>
+        <v>0.637434553196273</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0258256379380897</v>
+        <v>0.0302898876170322</v>
       </c>
     </row>
     <row r="46">
@@ -8061,19 +8051,19 @@
         <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>0.654179854626635</v>
+        <v>0.645135666811316</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>0.587911704839138</v>
+        <v>0.574224617824442</v>
       </c>
       <c r="G46" t="n">
-        <v>0.720448004414132</v>
+        <v>0.716046715798191</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0662681497874973</v>
+        <v>0.0709110489868747</v>
       </c>
     </row>
     <row r="47">
@@ -8087,19 +8077,19 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>0.655485377669445</v>
+        <v>0.661391144406546</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>0.647028444643383</v>
+        <v>0.652828968501362</v>
       </c>
       <c r="G47" t="n">
-        <v>0.663942310695508</v>
+        <v>0.669953320311731</v>
       </c>
       <c r="H47" t="n">
-        <v>0.00845693302606221</v>
+        <v>0.00856217590518471</v>
       </c>
     </row>
     <row r="48">
@@ -8113,19 +8103,19 @@
         <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>0.698466946425879</v>
+        <v>0.703870601038617</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>0.684140089719599</v>
+        <v>0.689367849819486</v>
       </c>
       <c r="G48" t="n">
-        <v>0.712793803132159</v>
+        <v>0.718373352257747</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0143268567062801</v>
+        <v>0.0145027512191306</v>
       </c>
     </row>
     <row r="49">
@@ -8139,19 +8129,19 @@
         <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>0.759245281710395</v>
+        <v>0.762456551282809</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.751344839825206</v>
+        <v>0.754439644565012</v>
       </c>
       <c r="G49" t="n">
-        <v>0.767145723595584</v>
+        <v>0.770473458000606</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00790044188518901</v>
+        <v>0.00801690671779653</v>
       </c>
     </row>
     <row r="50">
@@ -8165,24 +8155,24 @@
         <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>0.000754305388245305</v>
+        <v>0.000858235987406405</v>
       </c>
       <c r="E50" t="n">
         <v>24</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.000726849822481369</v>
+        <v>-0.00082730148884122</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00223546059897198</v>
+        <v>0.00254377346365403</v>
       </c>
       <c r="H50" t="n">
-        <v>0.00148115521072667</v>
+        <v>0.00168553747624763</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -8191,24 +8181,24 @@
         <v>12</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0025462721951411</v>
+        <v>0.00339343295853663</v>
       </c>
       <c r="E51" t="n">
         <v>23</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.00250337235124964</v>
+        <v>0.00246639889316238</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00759591674153185</v>
+        <v>0.00432046702391087</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00504964454639075</v>
+        <v>0.000927034065374243</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -8217,19 +8207,19 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>0.003429888952902</v>
+        <v>0.0053320115957452</v>
       </c>
       <c r="E52" t="n">
         <v>22</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00252115040489875</v>
+        <v>-0.0053670493939656</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00433862750090525</v>
+        <v>0.016031072585456</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00090873854800325</v>
+        <v>0.0106990609897108</v>
       </c>
     </row>
     <row r="53">
@@ -8243,19 +8233,19 @@
         <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00459808934295257</v>
+        <v>0.00546264596522598</v>
       </c>
       <c r="E53" t="n">
         <v>21</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.00457759333886589</v>
+        <v>-0.00547834670569274</v>
       </c>
       <c r="G53" t="n">
-        <v>0.013773772024771</v>
+        <v>0.0164036386361447</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00917568268181846</v>
+        <v>0.0109409926709187</v>
       </c>
     </row>
     <row r="54">
@@ -8269,19 +8259,19 @@
         <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00558006426902104</v>
+        <v>0.00634677219761486</v>
       </c>
       <c r="E54" t="n">
         <v>20</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00240537036226342</v>
+        <v>0.00273690435617677</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00875475817577866</v>
+        <v>0.00995664003905294</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00317469390675762</v>
+        <v>0.00360986784143808</v>
       </c>
     </row>
     <row r="55">
@@ -8295,19 +8285,19 @@
         <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00887164318529109</v>
+        <v>0.00895689968770087</v>
       </c>
       <c r="E55" t="n">
         <v>19</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00456423742476282</v>
+        <v>0.00451050239531111</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0131790489458194</v>
+        <v>0.0134032969800906</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00430740576052827</v>
+        <v>0.00444639729238976</v>
       </c>
     </row>
     <row r="56">
@@ -8321,19 +8311,19 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0104675441024568</v>
+        <v>0.0103985455239069</v>
       </c>
       <c r="E56" t="n">
         <v>18</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00777616663384333</v>
+        <v>0.00761647077723137</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0131589215710703</v>
+        <v>0.0131806202705825</v>
       </c>
       <c r="H56" t="n">
-        <v>0.00269137746861347</v>
+        <v>0.00278207474667557</v>
       </c>
     </row>
     <row r="57">
@@ -8373,19 +8363,19 @@
         <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0131243107341458</v>
+        <v>0.0130032216055856</v>
       </c>
       <c r="E58" t="n">
         <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0115263125618745</v>
+        <v>0.0113772200820272</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0147223089064172</v>
+        <v>0.014629223129144</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00159799817227133</v>
+        <v>0.00162600152355842</v>
       </c>
     </row>
     <row r="59">
@@ -8416,33 +8406,33 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0204893443425969</v>
+        <v>0.0217075864272638</v>
       </c>
       <c r="E60" t="n">
         <v>14</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.00803208333536487</v>
+        <v>0.0165713180334279</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0490107720205587</v>
+        <v>0.0268438548210997</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0285214276779618</v>
+        <v>0.0051362683938359</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -8451,45 +8441,45 @@
         <v>12</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0217075864272638</v>
+        <v>0.0246001439255487</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0165713180334279</v>
+        <v>0.0142105751025364</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0268438548210997</v>
+        <v>0.034989712748561</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0051362683938359</v>
+        <v>0.0103895688230123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0220880303129731</v>
+        <v>0.0335136814419757</v>
       </c>
       <c r="E62" t="n">
         <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0129002570814157</v>
+        <v>-0.0129685143788874</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0312758035445305</v>
+        <v>0.0799958772628388</v>
       </c>
       <c r="H62" t="n">
-        <v>0.00918777323155736</v>
+        <v>0.0464821958208631</v>
       </c>
     </row>
     <row r="63">
@@ -8503,50 +8493,50 @@
         <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0371269038583388</v>
+        <v>0.0369455472189744</v>
       </c>
       <c r="E63" t="n">
         <v>11</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0314658125659123</v>
+        <v>0.0312656180341139</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0427879951507653</v>
+        <v>0.0426254764038349</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0056610912924265</v>
+        <v>0.00567992918486047</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0375841504054845</v>
+        <v>0.0423714327943436</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00300042931007072</v>
+        <v>0.0334363297862033</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0721678715008983</v>
+        <v>0.0513065358024838</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0345837210954138</v>
+        <v>0.00893510300814027</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
         <v>24</v>
@@ -8555,45 +8545,45 @@
         <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>0.042348311424903</v>
+        <v>0.0467694358031344</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0191091242229672</v>
+        <v>0.00156836743044019</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0655874986268388</v>
+        <v>0.0919705041758287</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0232391872019358</v>
+        <v>0.0452010683726942</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0423714327943436</v>
+        <v>0.0474123334656011</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0334363297862033</v>
+        <v>0.0184357727778643</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0513065358024838</v>
+        <v>0.076388894153338</v>
       </c>
       <c r="H66" t="n">
-        <v>0.00893510300814027</v>
+        <v>0.0289765606877369</v>
       </c>
     </row>
     <row r="67">
@@ -8607,19 +8597,19 @@
         <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0471013107822504</v>
+        <v>0.0566463811512686</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00905642391844527</v>
+        <v>0.0100179094664816</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0851461976460556</v>
+        <v>0.103274852836056</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0380448868638052</v>
+        <v>0.046628471684787</v>
       </c>
     </row>
     <row r="68">
@@ -8633,19 +8623,19 @@
         <v>12</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0576393884887252</v>
+        <v>0.0600279393534394</v>
       </c>
       <c r="E68" t="n">
         <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0416721245961834</v>
+        <v>0.0430468837934055</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0736066523812671</v>
+        <v>0.0770089949134732</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0159672638925419</v>
+        <v>0.0169810555600338</v>
       </c>
     </row>
     <row r="69">
@@ -8659,19 +8649,19 @@
         <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0654924807579395</v>
+        <v>0.068690116344035</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
       </c>
       <c r="F69" t="n">
-        <v>0.057263187733616</v>
+        <v>0.0600044660781235</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0737217737822631</v>
+        <v>0.0773757666099464</v>
       </c>
       <c r="H69" t="n">
-        <v>0.00822929302432353</v>
+        <v>0.00868565026591146</v>
       </c>
     </row>
     <row r="70">
@@ -8685,19 +8675,19 @@
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0743316446299875</v>
+        <v>0.0813678141616544</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.0642317382625144</v>
+        <v>-0.0697736488383392</v>
       </c>
       <c r="G70" t="n">
-        <v>0.212895027522489</v>
+        <v>0.232509277161648</v>
       </c>
       <c r="H70" t="n">
-        <v>0.138563382892502</v>
+        <v>0.151141462999994</v>
       </c>
     </row>
     <row r="71">
@@ -8711,19 +8701,19 @@
         <v>12</v>
       </c>
       <c r="D71" t="n">
-        <v>0.092772143080702</v>
+        <v>0.0952515590794586</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0550361239624801</v>
+        <v>0.0557912956306022</v>
       </c>
       <c r="G71" t="n">
-        <v>0.130508162198924</v>
+        <v>0.134711822528315</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0377360191182218</v>
+        <v>0.0394602634488564</v>
       </c>
     </row>
     <row r="72">
@@ -8737,19 +8727,19 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>0.145953614462045</v>
+        <v>0.1500643595093</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>0.123021619392239</v>
+        <v>0.126381594272394</v>
       </c>
       <c r="G72" t="n">
-        <v>0.16888560953185</v>
+        <v>0.173747124746206</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0229319950698058</v>
+        <v>0.0236827652369062</v>
       </c>
     </row>
     <row r="73">
@@ -8781,19 +8771,19 @@
         <v>13</v>
       </c>
       <c r="D74" t="n">
-        <v>0.234512122847868</v>
+        <v>0.231464228855146</v>
       </c>
       <c r="E74" t="n">
         <v>24</v>
       </c>
       <c r="F74" t="n">
-        <v>0.226660920936957</v>
+        <v>0.223497107711697</v>
       </c>
       <c r="G74" t="n">
-        <v>0.24236332475878</v>
+        <v>0.239431349998595</v>
       </c>
       <c r="H74" t="n">
-        <v>0.00785120191091138</v>
+        <v>0.00796712114344886</v>
       </c>
     </row>
     <row r="75">
@@ -8807,19 +8797,19 @@
         <v>13</v>
       </c>
       <c r="D75" t="n">
-        <v>0.281680279440031</v>
+        <v>0.276508534339335</v>
       </c>
       <c r="E75" t="n">
         <v>23</v>
       </c>
       <c r="F75" t="n">
-        <v>0.267539927514203</v>
+        <v>0.262206159454795</v>
       </c>
       <c r="G75" t="n">
-        <v>0.295820631365859</v>
+        <v>0.290810909223874</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0141403519258282</v>
+        <v>0.0143023748845393</v>
       </c>
     </row>
     <row r="76">
@@ -8833,19 +8823,19 @@
         <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>0.319248036219886</v>
+        <v>0.31402826194657</v>
       </c>
       <c r="E76" t="n">
         <v>22</v>
       </c>
       <c r="F76" t="n">
-        <v>0.310895706782018</v>
+        <v>0.305574420071699</v>
       </c>
       <c r="G76" t="n">
-        <v>0.327600365657754</v>
+        <v>0.322482103821441</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00835232943786807</v>
+        <v>0.0084538418748708</v>
       </c>
     </row>
     <row r="77">
@@ -8859,50 +8849,50 @@
         <v>13</v>
       </c>
       <c r="D77" t="n">
-        <v>0.342969513493154</v>
+        <v>0.351620932167598</v>
       </c>
       <c r="E77" t="n">
         <v>21</v>
       </c>
       <c r="F77" t="n">
-        <v>0.276733125270495</v>
+        <v>0.280732851496463</v>
       </c>
       <c r="G77" t="n">
-        <v>0.409205901715813</v>
+        <v>0.422509012838733</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0662363882226592</v>
+        <v>0.0708880806711349</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="n">
-        <v>0.358939843250374</v>
+        <v>0.375112932850259</v>
       </c>
       <c r="E78" t="n">
         <v>20</v>
       </c>
       <c r="F78" t="n">
-        <v>0.240461959185372</v>
+        <v>0.344981732615995</v>
       </c>
       <c r="G78" t="n">
-        <v>0.477417727315376</v>
+        <v>0.405244133084524</v>
       </c>
       <c r="H78" t="n">
-        <v>0.118477884065002</v>
+        <v>0.0301312002342644</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -8911,45 +8901,45 @@
         <v>13</v>
       </c>
       <c r="D79" t="n">
-        <v>0.375112932850259</v>
+        <v>0.39057460477</v>
       </c>
       <c r="E79" t="n">
         <v>19</v>
       </c>
       <c r="F79" t="n">
-        <v>0.344981732615995</v>
+        <v>0.363210338076747</v>
       </c>
       <c r="G79" t="n">
-        <v>0.405244133084524</v>
+        <v>0.417938871463253</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0301312002342644</v>
+        <v>0.027364266693253</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="n">
-        <v>0.38187297142242</v>
+        <v>0.391225425446325</v>
       </c>
       <c r="E80" t="n">
         <v>18</v>
       </c>
       <c r="F80" t="n">
-        <v>0.356089455330348</v>
+        <v>0.354786051948929</v>
       </c>
       <c r="G80" t="n">
-        <v>0.407656487514492</v>
+        <v>0.427664798943721</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0257835160920718</v>
+        <v>0.0364393734973961</v>
       </c>
     </row>
     <row r="81">
@@ -8963,19 +8953,19 @@
         <v>13</v>
       </c>
       <c r="D81" t="n">
-        <v>0.392155464088388</v>
+        <v>0.397406313169261</v>
       </c>
       <c r="E81" t="n">
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>0.319583227160856</v>
+        <v>0.322512160401493</v>
       </c>
       <c r="G81" t="n">
-        <v>0.46472770101592</v>
+        <v>0.47230046593703</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0725722369275318</v>
+        <v>0.0748941527677685</v>
       </c>
     </row>
     <row r="82">
@@ -8989,24 +8979,24 @@
         <v>13</v>
       </c>
       <c r="D82" t="n">
-        <v>0.39850406272675</v>
+        <v>0.404083039246052</v>
       </c>
       <c r="E82" t="n">
         <v>16</v>
       </c>
       <c r="F82" t="n">
-        <v>0.371978509775938</v>
+        <v>0.376217466530275</v>
       </c>
       <c r="G82" t="n">
-        <v>0.425029615677561</v>
+        <v>0.431948611961829</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0265255529508115</v>
+        <v>0.0278655727157768</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
@@ -9015,71 +9005,71 @@
         <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>0.401271801376898</v>
+        <v>0.404340165953804</v>
       </c>
       <c r="E83" t="n">
         <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>0.365272840573204</v>
+        <v>0.387535637009661</v>
       </c>
       <c r="G83" t="n">
-        <v>0.437270762180593</v>
+        <v>0.421144694897947</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0359989608036942</v>
+        <v>0.0168045289441429</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="n">
-        <v>0.406060613505181</v>
+        <v>0.411681371463252</v>
       </c>
       <c r="E84" t="n">
         <v>14</v>
       </c>
       <c r="F84" t="n">
-        <v>0.389409859162473</v>
+        <v>0.367972640433049</v>
       </c>
       <c r="G84" t="n">
-        <v>0.42271136784789</v>
+        <v>0.455390102493454</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0166507543427087</v>
+        <v>0.0437087310302026</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="n">
-        <v>0.408967163686629</v>
+        <v>0.426816778696304</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
       </c>
       <c r="F85" t="n">
-        <v>0.243224117403288</v>
+        <v>0.390874373402346</v>
       </c>
       <c r="G85" t="n">
-        <v>0.574710209969971</v>
+        <v>0.462759183990261</v>
       </c>
       <c r="H85" t="n">
-        <v>0.165743046283342</v>
+        <v>0.0359424052939572</v>
       </c>
     </row>
     <row r="86">
@@ -9087,51 +9077,51 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>0.417907348474497</v>
+        <v>0.436339765898557</v>
       </c>
       <c r="E86" t="n">
         <v>12</v>
       </c>
       <c r="F86" t="n">
-        <v>0.302348663625219</v>
+        <v>0.280828580725153</v>
       </c>
       <c r="G86" t="n">
-        <v>0.533466033323775</v>
+        <v>0.59185095107196</v>
       </c>
       <c r="H86" t="n">
-        <v>0.115558684849278</v>
+        <v>0.155511185173403</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="n">
-        <v>0.428508393254493</v>
+        <v>0.458577690474605</v>
       </c>
       <c r="E87" t="n">
         <v>11</v>
       </c>
       <c r="F87" t="n">
-        <v>0.386745948588995</v>
+        <v>0.41946492327468</v>
       </c>
       <c r="G87" t="n">
-        <v>0.470270837919992</v>
+        <v>0.497690457674531</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0417624446654982</v>
+        <v>0.0391127671999252</v>
       </c>
     </row>
     <row r="88">
@@ -9139,25 +9129,25 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="n">
-        <v>0.43219035877991</v>
+        <v>0.481965763131479</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
       </c>
       <c r="F88" t="n">
-        <v>0.397153991998876</v>
+        <v>0.461453222028393</v>
       </c>
       <c r="G88" t="n">
-        <v>0.467226725560944</v>
+        <v>0.502478304234565</v>
       </c>
       <c r="H88" t="n">
-        <v>0.035036366781034</v>
+        <v>0.0205125411030864</v>
       </c>
     </row>
     <row r="89">
@@ -9165,181 +9155,181 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" t="n">
-        <v>0.458577690474605</v>
+        <v>0.507127888973508</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
       </c>
       <c r="F89" t="n">
-        <v>0.41946492327468</v>
+        <v>0.484104690962587</v>
       </c>
       <c r="G89" t="n">
-        <v>0.497690457674531</v>
+        <v>0.530151086984428</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0391127671999252</v>
+        <v>0.0230231980109201</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" t="n">
-        <v>0.459073710563532</v>
+        <v>0.510781460283067</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.250283764368185</v>
+        <v>0.490263956070733</v>
       </c>
       <c r="G90" t="n">
-        <v>0.667863656758878</v>
+        <v>0.531298964495401</v>
       </c>
       <c r="H90" t="n">
-        <v>0.208789946195346</v>
+        <v>0.0205175042123339</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="n">
-        <v>0.48507989249062</v>
+        <v>0.513707742634867</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.465107295286452</v>
+        <v>0.349568443120662</v>
       </c>
       <c r="G91" t="n">
-        <v>0.505052489694787</v>
+        <v>0.677847042149072</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0199725972041673</v>
+        <v>0.164139299514205</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" t="n">
-        <v>0.500420858207782</v>
+        <v>0.524389122561424</v>
       </c>
       <c r="E92" t="n">
         <v>6</v>
       </c>
       <c r="F92" t="n">
-        <v>0.435024357877506</v>
+        <v>0.289509922991628</v>
       </c>
       <c r="G92" t="n">
-        <v>0.565817358538059</v>
+        <v>0.75926832213122</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0653965003302769</v>
+        <v>0.234879199569796</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="D93" t="n">
-        <v>0.507127888973508</v>
+        <v>0.526857315362392</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
       </c>
       <c r="F93" t="n">
-        <v>0.484104690962587</v>
+        <v>0.449045514602353</v>
       </c>
       <c r="G93" t="n">
-        <v>0.530151086984428</v>
+        <v>0.60466911612243</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0230231980109201</v>
+        <v>0.077811800760038</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" t="n">
-        <v>0.510781460283067</v>
+        <v>0.527862420947007</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>0.490263956070733</v>
+        <v>0.425143153536426</v>
       </c>
       <c r="G94" t="n">
-        <v>0.531298964495401</v>
+        <v>0.630581688357587</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0205175042123339</v>
+        <v>0.102719267410581</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="n">
-        <v>0.535381925625745</v>
+        <v>0.532048282874912</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>0.442275443104188</v>
+        <v>0.302295245515902</v>
       </c>
       <c r="G95" t="n">
-        <v>0.628488408147303</v>
+        <v>0.761801320233922</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0931064825215573</v>
+        <v>0.22975303735901</v>
       </c>
     </row>
     <row r="96">
@@ -9353,19 +9343,19 @@
         <v>13</v>
       </c>
       <c r="D96" t="n">
-        <v>0.593008769321362</v>
+        <v>0.565484697866857</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>0.363023709882464</v>
+        <v>0.32022879622075</v>
       </c>
       <c r="G96" t="n">
-        <v>0.822993828760259</v>
+        <v>0.810740599512965</v>
       </c>
       <c r="H96" t="n">
-        <v>0.229985059438898</v>
+        <v>0.245255901646107</v>
       </c>
     </row>
     <row r="97">
@@ -9379,19 +9369,19 @@
         <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>0.646592961423257</v>
+        <v>0.617259256462528</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.538332940646251</v>
+        <v>0.490174291255384</v>
       </c>
       <c r="G97" t="n">
-        <v>0.754852982200263</v>
+        <v>0.744344221669672</v>
       </c>
       <c r="H97" t="n">
-        <v>0.108260020777006</v>
+        <v>0.127084965207144</v>
       </c>
     </row>
   </sheetData>
@@ -9439,19 +9429,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00700109626706264</v>
+        <v>0.00767679913570053</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00499472029270691</v>
+        <v>0.00543478977740395</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00900747224141837</v>
+        <v>0.00991880849399712</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00200637597435573</v>
+        <v>0.00224200935829658</v>
       </c>
     </row>
     <row r="3">
@@ -9462,19 +9452,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0101612341445786</v>
+        <v>0.00986449590588446</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00927290295655875</v>
+        <v>0.00897552777421536</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0110495653325984</v>
+        <v>0.0107534640375536</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000888331188019826</v>
+        <v>0.000888968131669098</v>
       </c>
     </row>
     <row r="4">
@@ -9485,19 +9475,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0168701642004191</v>
+        <v>0.0205681999259936</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00807784882313606</v>
+        <v>0.00812891887372225</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0256624795777022</v>
+        <v>0.033007480978265</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00879231537728305</v>
+        <v>0.0124392810522714</v>
       </c>
     </row>
     <row r="5">
@@ -9531,19 +9521,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.032235176653928</v>
+        <v>0.0424904586856894</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00346702383625938</v>
+        <v>0.00257303017022782</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0610033294715966</v>
+        <v>0.0824078872011509</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0287681528176686</v>
+        <v>0.0399174285154616</v>
       </c>
     </row>
     <row r="7">
@@ -9554,19 +9544,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0636527463125841</v>
+        <v>0.0666207696056374</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0584248741367608</v>
+        <v>0.0610974343829931</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0688806184884074</v>
+        <v>0.0721441048282817</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00522787217582327</v>
+        <v>0.00552333522264427</v>
       </c>
     </row>
     <row r="8">
@@ -9577,88 +9567,88 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.383880114926295</v>
+        <v>0.3387501764322</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.305313469196147</v>
+        <v>0.249097690048361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.462446760656442</v>
+        <v>0.428402662816039</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0785666457301473</v>
+        <v>0.0896524863838387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.430802822568129</v>
+        <v>0.421873565156035</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.417295112988812</v>
+        <v>0.367472485281442</v>
       </c>
       <c r="F9" t="n">
-        <v>0.444310532147445</v>
+        <v>0.476274645030628</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0135077095793164</v>
+        <v>0.0544010798745931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.470336857092185</v>
+        <v>0.426307869515244</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.457403458920505</v>
+        <v>0.412386502484392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.483270255263864</v>
+        <v>0.440229236546096</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0129333981716798</v>
+        <v>0.0139213670308524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>0.471174148120245</v>
+        <v>0.470336857092185</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0.425589989288887</v>
+        <v>0.457403458920505</v>
       </c>
       <c r="F11" t="n">
-        <v>0.516758306951603</v>
+        <v>0.483270255263864</v>
       </c>
       <c r="G11" t="n">
-        <v>0.045584158831358</v>
+        <v>0.0129333981716798</v>
       </c>
     </row>
     <row r="12">
@@ -9669,19 +9659,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.586188113857726</v>
+        <v>0.581621468178831</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>0.566024040195355</v>
+        <v>0.560351270437115</v>
       </c>
       <c r="F12" t="n">
-        <v>0.606352187520096</v>
+        <v>0.602891665920548</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0201640736623708</v>
+        <v>0.0212701977417162</v>
       </c>
     </row>
     <row r="13">
@@ -9692,19 +9682,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.684344205772386</v>
+        <v>0.688415507299122</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.679135969318116</v>
+        <v>0.683137165403193</v>
       </c>
       <c r="F13" t="n">
-        <v>0.689552442226656</v>
+        <v>0.693693849195051</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00520823645427004</v>
+        <v>0.00527834189592902</v>
       </c>
     </row>
     <row r="14">
@@ -9715,19 +9705,19 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0119005113541893</v>
+        <v>0.0118729177510304</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0108885150189846</v>
+        <v>0.0108401953447802</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0129125076893941</v>
+        <v>0.0129056401572806</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00101199633520477</v>
+        <v>0.00103272240625024</v>
       </c>
     </row>
     <row r="15">
@@ -9738,19 +9728,19 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0158433528225717</v>
+        <v>0.0175983175695391</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0116886303313403</v>
+        <v>0.0129203025318456</v>
       </c>
       <c r="F15" t="n">
-        <v>0.019998075313803</v>
+        <v>0.0222763326072326</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00415472249123134</v>
+        <v>0.00467801503769349</v>
       </c>
     </row>
     <row r="16">
@@ -9784,19 +9774,19 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0274986410959012</v>
+        <v>0.0369647973792173</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00528559892936243</v>
+        <v>0.00607954186531654</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0497116832624399</v>
+        <v>0.067850052893118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0222130421665387</v>
+        <v>0.0308852555139007</v>
       </c>
     </row>
     <row r="18">
@@ -9807,19 +9797,19 @@
         <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0343441757891373</v>
+        <v>0.0427822140966773</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0194142057087344</v>
+        <v>0.0227941161782667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0492741458695401</v>
+        <v>0.0627703120150879</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0149299700804029</v>
+        <v>0.0199880979184106</v>
       </c>
     </row>
     <row r="19">
@@ -9830,19 +9820,19 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0611315871882571</v>
+        <v>0.0644985069644032</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0555010617240355</v>
+        <v>0.0585078631573173</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0667621126524787</v>
+        <v>0.070489150771489</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00563052546422162</v>
+        <v>0.00599064380708583</v>
       </c>
     </row>
     <row r="20">
@@ -9853,19 +9843,19 @@
         <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>0.293594048728846</v>
+        <v>0.289847079043963</v>
       </c>
       <c r="D20" t="n">
         <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>0.288457583778632</v>
+        <v>0.284643160284813</v>
       </c>
       <c r="F20" t="n">
-        <v>0.29873051367906</v>
+        <v>0.295050997803113</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00513646495021414</v>
+        <v>0.00520391875914988</v>
       </c>
     </row>
     <row r="21">
@@ -9876,19 +9866,19 @@
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>0.39096743705264</v>
+        <v>0.393103415115929</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.370895276608921</v>
+        <v>0.371935969488992</v>
       </c>
       <c r="F21" t="n">
-        <v>0.411039597496359</v>
+        <v>0.414270860742866</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0200721604437187</v>
+        <v>0.0211674456269368</v>
       </c>
     </row>
     <row r="22">
@@ -9899,65 +9889,65 @@
         <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>0.44441284393103</v>
+        <v>0.442572853914715</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>0.430877517098023</v>
+        <v>0.428624044840738</v>
       </c>
       <c r="F22" t="n">
-        <v>0.457948170764036</v>
+        <v>0.456521662988693</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0135353268330065</v>
+        <v>0.0139488090739777</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>0.477611511890199</v>
+        <v>0.479041135615545</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.432191688350593</v>
+        <v>0.466075684334793</v>
       </c>
       <c r="F23" t="n">
-        <v>0.523031335429805</v>
+        <v>0.492006586896297</v>
       </c>
       <c r="G23" t="n">
-        <v>0.045419823539606</v>
+        <v>0.0129654512807523</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>0.479041135615545</v>
+        <v>0.514776020821294</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.466075684334793</v>
+        <v>0.46027790101081</v>
       </c>
       <c r="F24" t="n">
-        <v>0.492006586896297</v>
+        <v>0.569274140631777</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0129654512807523</v>
+        <v>0.0544981198104832</v>
       </c>
     </row>
     <row r="25">
@@ -9968,19 +9958,19 @@
         <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>0.556386067323876</v>
+        <v>0.581794567502893</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.476297941629265</v>
+        <v>0.488483057060483</v>
       </c>
       <c r="F25" t="n">
-        <v>0.636474193018487</v>
+        <v>0.675106077945304</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0800881256946107</v>
+        <v>0.0933115104424103</v>
       </c>
     </row>
   </sheetData>
@@ -11552,7 +11542,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0046613848990637</v>
+        <v>0.00477834357607361</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
@@ -11569,7 +11559,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004881087048909</v>
+        <v>0.00531617638606971</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -11603,7 +11593,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0101942750963307</v>
+        <v>0.0115902946899283</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -11611,16 +11601,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0133692069590377</v>
+        <v>0.015665569646299</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -11628,16 +11618,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0163940478171186</v>
+        <v>0.0189801554055305</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -11654,7 +11644,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.020670081919816</v>
+        <v>0.0221565984154781</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -11662,7 +11652,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -11671,7 +11661,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0234311029290231</v>
+        <v>0.0282666382855485</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -11679,7 +11669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -11688,7 +11678,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0266368468184852</v>
+        <v>0.0329112929883725</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -11696,7 +11686,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -11705,7 +11695,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0399935702443287</v>
+        <v>0.0416598580413565</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -11713,7 +11703,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -11722,7 +11712,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0416598580413565</v>
+        <v>0.0509168376822608</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -11739,7 +11729,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0893476704919795</v>
+        <v>0.0915488204785543</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -11756,7 +11746,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>0.333028593395736</v>
+        <v>0.313755959319558</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
@@ -11764,16 +11754,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>0.402535258630962</v>
+        <v>0.367163774644924</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -11790,7 +11780,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.413417927320299</v>
+        <v>0.389080346692262</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -11798,7 +11788,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -11807,7 +11797,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>0.436282550267762</v>
+        <v>0.401235513445551</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -11815,16 +11805,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>0.441585429739475</v>
+        <v>0.436282550267762</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -11832,7 +11822,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -11841,7 +11831,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>0.471524846043887</v>
+        <v>0.454659475766319</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -11849,7 +11839,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -11858,7 +11848,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>0.503718847287466</v>
+        <v>0.464884027839993</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
@@ -11866,7 +11856,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -11875,7 +11865,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>0.524386368588136</v>
+        <v>0.503718847287466</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -11892,7 +11882,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.581362573807508</v>
+        <v>0.578150263819339</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -11909,7 +11899,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>0.589391877234603</v>
+        <v>0.583715300627621</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -11926,7 +11916,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>0.653981636811225</v>
+        <v>0.660254300244308</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -11943,7 +11933,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.711136207068469</v>
+        <v>0.713106141357825</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -11960,7 +11950,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00665566168902908</v>
+        <v>0.00668176591108138</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
@@ -11968,7 +11958,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -11977,7 +11967,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0101829719430611</v>
+        <v>0.0130000330628856</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
@@ -11985,7 +11975,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -11994,7 +11984,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0119360774380837</v>
+        <v>0.0143029875343744</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -12028,7 +12018,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0178443416746452</v>
+        <v>0.0177937499771373</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -12045,7 +12035,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0217285296090829</v>
+        <v>0.02522146107126</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -12062,7 +12052,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0225256011212016</v>
+        <v>0.0296949046255971</v>
       </c>
       <c r="E32" t="n">
         <v>6</v>
@@ -12096,7 +12086,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0395190940980026</v>
+        <v>0.0430878002582942</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -12104,7 +12094,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -12113,7 +12103,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0427576883013861</v>
+        <v>0.0558724406787483</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -12121,7 +12111,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -12130,7 +12120,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0471719849288408</v>
+        <v>0.0568994142899954</v>
       </c>
       <c r="E36" t="n">
         <v>2</v>
@@ -12147,7 +12137,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0761340963497683</v>
+        <v>0.0784142747741524</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -12164,7 +12154,7 @@
         <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277546746343438</v>
+        <v>0.27543374915502</v>
       </c>
       <c r="E38" t="n">
         <v>12</v>
@@ -12181,7 +12171,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>0.311779973697012</v>
+        <v>0.306286380132256</v>
       </c>
       <c r="E39" t="n">
         <v>11</v>
@@ -12198,7 +12188,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>0.386714621487078</v>
+        <v>0.385037980419472</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -12215,7 +12205,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>0.393790958278404</v>
+        <v>0.397968489923424</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -12232,7 +12222,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="n">
-        <v>0.43198297452729</v>
+        <v>0.428801391301743</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -12240,7 +12230,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -12249,7 +12239,7 @@
         <v>13</v>
       </c>
       <c r="D43" t="n">
-        <v>0.439718823331625</v>
+        <v>0.463761533616164</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -12257,7 +12247,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
@@ -12266,7 +12256,7 @@
         <v>13</v>
       </c>
       <c r="D44" t="n">
-        <v>0.462319213039625</v>
+        <v>0.472271977632456</v>
       </c>
       <c r="E44" t="n">
         <v>6</v>
@@ -12277,13 +12267,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>0.472271977632456</v>
+        <v>0.485946625119034</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -12291,16 +12281,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="n">
-        <v>0.485946625119034</v>
+        <v>0.496665464202553</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -12317,7 +12307,7 @@
         <v>13</v>
       </c>
       <c r="D47" t="n">
-        <v>0.518740005831044</v>
+        <v>0.532890614213511</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -12328,13 +12318,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>0.524800495388441</v>
+        <v>0.578427788708186</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -12345,13 +12335,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="n">
-        <v>0.584220148058549</v>
+        <v>0.585621944832329</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
